--- a/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
+++ b/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1100,32 +1097,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -1141,11 +1138,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
+++ b/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -721,7 +721,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
+++ b/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -700,19 +700,31 @@
     <t>Zombo</t>
   </si>
   <si>
-    <t>2014</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
   </si>
   <si>
     <t>Name: uganda-primary-stu-teach-ratio-gov</t>
   </si>
   <si>
-    <t>Description: Ugandan Primary pupil/teacher ratio - Government schools (per child)</t>
+    <t>Description: Primary Pupil/Teacher Ratio - Government Schools (Per Child)</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: Education Statistics Abstracts 2010-2013 - Ministry of Education</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.education.go.ug/data/smenu/4/Statistics%20Abstract%20.html</t>
   </si>
   <si>
     <t/>
@@ -727,7 +739,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1067,77 +1082,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1176,1564 +1201,6268 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v> 63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v> 51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D4" t="n">
-        <v>87</v>
+        <v> 54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v> 49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v> 60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v> 54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v> 56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v> 57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v> 79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v> 81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v> 85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D13" t="n">
-        <v>55</v>
+        <v> 87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v> 74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v> 68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v> 68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v> 70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v> 59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v> 63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v> 62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D23" t="n">
-        <v>38</v>
+        <v> 70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v> 53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D25" t="n">
-        <v>77</v>
+        <v> 57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D26" t="n">
-        <v>42</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D27" t="n">
-        <v>65</v>
+        <v> 66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v> 69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v> 69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C30" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v> 78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v> 76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D33" t="n">
-        <v>41</v>
+        <v> 70</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D34" t="n">
-        <v>43</v>
+        <v> 69</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D35" t="n">
-        <v>53</v>
+        <v> 64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C36" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D36" t="n">
-        <v>42</v>
+        <v> 66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>92</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D38" t="n">
-        <v>39</v>
+        <v> 64</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D39" t="n">
-        <v>52</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D40" t="n">
-        <v>85</v>
+        <v> 68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D41" t="n">
-        <v>30</v>
+        <v> 70</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C42" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D42" t="n">
-        <v>55</v>
+        <v> 70</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D43" t="n">
-        <v>58</v>
+        <v> 72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D44" t="n">
-        <v>42</v>
+        <v> 69</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C45" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D45" t="n">
-        <v>55</v>
+        <v> 71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D46" t="n">
-        <v>56</v>
+        <v> 55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D47" t="n">
-        <v>46</v>
+        <v> 46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D48" t="n">
-        <v>48</v>
+        <v> 50</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D49" t="n">
-        <v>46</v>
+        <v> 55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C50" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D50" t="n">
-        <v>70</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C51" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D51" t="n">
-        <v>56</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D52" t="n">
-        <v>60</v>
+        <v> 70</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="C53" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>35</v>
+        <v> 75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C54" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D54" t="n">
-        <v>56</v>
+        <v> 46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C55" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D55" t="n">
-        <v>49</v>
+        <v> 47</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C56" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D56" t="n">
-        <v>63</v>
+        <v> 40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D57" t="n">
-        <v>53</v>
+        <v> 40</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D58" t="n">
-        <v>58</v>
+        <v> 55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D59" t="n">
-        <v>67</v>
+        <v> 50</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D60" t="n">
-        <v>63</v>
+        <v> 50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C61" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>76</v>
+        <v> 46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D62" t="n">
-        <v>75</v>
+        <v> 70</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D63" t="n">
-        <v>58</v>
+        <v> 74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D64" t="n">
-        <v>40</v>
+        <v> 45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C65" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D65" t="n">
-        <v>70</v>
+        <v> 46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="C66" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D66" t="n">
-        <v>67</v>
+        <v> 60</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C67" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D67" t="n">
-        <v>76</v>
+        <v> 55</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D68" t="n">
-        <v>58</v>
+        <v> 54</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D69" t="n">
-        <v>53</v>
+        <v> 61</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="C70" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D70" t="n">
-        <v>49</v>
+        <v> 57</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="C71" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D71" t="n">
-        <v>58</v>
+        <v> 76</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C72" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D72" t="n">
-        <v>50</v>
+        <v> 68</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C73" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D73" t="n">
-        <v>65</v>
+        <v> 63</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="C74" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D74" t="n">
-        <v>72</v>
+        <v> 59</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="C75" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D75" t="n">
-        <v>43</v>
+        <v> 61</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C76" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D76" t="n">
-        <v>51</v>
+        <v> 62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="C77" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>63</v>
+        <v> 64</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="C78" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D78" t="n">
-        <v>53</v>
+        <v> 68</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="C79" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D79" t="n">
-        <v>36</v>
+        <v> 61</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="C80" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D80" t="n">
-        <v>41</v>
+        <v> 60</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="C81" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D81" t="n">
-        <v>40</v>
+        <v> 63</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
+        <v> 56</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D83" t="n">
-        <v>48</v>
+        <v> 46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D84" t="n">
-        <v>49</v>
+        <v> 50</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>57</v>
+        <v> 48</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="C86" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D86" t="n">
-        <v>47</v>
+        <v> 40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="C87" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D87" t="n">
-        <v>38</v>
+        <v> 38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C88" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D88" t="n">
-        <v>52</v>
+        <v> 37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="C89" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>41</v>
+        <v> 38</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D90" t="n">
-        <v>72</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="C91" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D91" t="n">
-        <v>71</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D92" t="n">
-        <v>73</v>
+        <v> 64</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="C93" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D93" t="n">
-        <v>66</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="C94" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D94" t="n">
-        <v>64</v>
+        <v> 74</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="C95" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D95" t="n">
-        <v>43</v>
+        <v> 77</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C96" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D96" t="n">
-        <v>48</v>
+        <v> 75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="C97" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D97" t="n">
-        <v>74</v>
+        <v> 77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="C98" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D98" t="n">
-        <v>62</v>
+        <v> 54</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C99" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D99" t="n">
-        <v>69</v>
+        <v> 42</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C100" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D100" t="n">
-        <v>84</v>
+        <v> 43</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="C101" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D101" t="n">
-        <v>70</v>
+        <v> 42</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="C102" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D102" t="n">
-        <v>46</v>
+        <v> 74</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="C103" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D103" t="n">
-        <v>46</v>
+        <v> 79</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="C104" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D104" t="n">
-        <v>35</v>
+        <v> 59</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="C105" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D105" t="n">
-        <v>77</v>
+        <v> 65</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="C106" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D106" t="n">
-        <v>40</v>
+        <v> 91</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D107" t="n">
-        <v>58</v>
+        <v> 85</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="C108" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D108" t="n">
-        <v>62</v>
+        <v> 64</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="C109" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D109" t="n">
-        <v>40</v>
+        <v> 64</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="C110" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D110" t="n">
-        <v>75</v>
+        <v> 69</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="C111" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D111" t="n">
-        <v>37</v>
+        <v> 69</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="C112" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D112" t="n">
-        <v>50</v>
+        <v> 73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D113" t="n">
+        <v> 73</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D114" t="n">
+        <v> 54</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D115" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D116" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D117" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D118" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D119" t="n">
+        <v> 45</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D120" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D121" t="n">
+        <v> 49</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D122" t="n">
+        <v> 57</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D123" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D124" t="n">
+        <v> 57</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D125" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D126" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D127" t="n">
+        <v> 44</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D128" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D129" t="n">
+        <v> 41</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D130" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D131" t="n">
+        <v> 45</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D132" t="n">
+        <v> 45</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D133" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D134" t="n">
+        <v> 51</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D135" t="n">
+        <v> 54</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D136" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D137" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D138" t="n">
+        <v> 48</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D139" t="n">
+        <v> 37</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D140" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D141" t="n">
+        <v> 42</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D142" t="n">
+        <v> 82</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D143" t="n">
+        <v> 72</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D144" t="n">
+        <v> 86</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D145" t="n">
+        <v> 92</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D146" t="n">
+        <v> 39</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D147" t="n">
+        <v> 38</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D148" t="n">
+        <v> 40</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D149" t="n">
+        <v> 39</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D150" t="n">
+        <v> 59</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D151" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D152" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D153" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D154" t="n">
+        <v> 75</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D155" t="n">
+        <v> 75</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D156" t="n">
+        <v> 79</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D157" t="n">
+        <v> 85</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D158" t="n">
+        <v> 35</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D159" t="n">
+        <v> 32</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D160" t="n">
+        <v> 30</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D161" t="n">
+        <v> 30</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D162" t="n">
+        <v> 70</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D163" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D164" t="n">
+        <v> 54</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D165" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D166" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D167" t="n">
+        <v> 57</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D168" t="n">
+        <v> 54</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D169" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D170" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D171" t="n">
+        <v> 42</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D172" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D173" t="n">
+        <v> 42</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D174" t="n">
+        <v> 60</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D175" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D176" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D177" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D178" t="n">
+        <v> 59</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D179" t="n">
+        <v> 59</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D180" t="n">
+        <v> 60</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D181" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D182" t="n">
+        <v> 51</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D183" t="n">
+        <v> 48</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D184" t="n">
+        <v> 45</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D185" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D186" t="n">
+        <v> 45</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D187" t="n">
+        <v> 44</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D188" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D189" t="n">
+        <v> 48</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D190" t="n">
+        <v> 51</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D191" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D192" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D193" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D194" t="n">
+        <v> 61</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D195" t="n">
+        <v> 61</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D196" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D197" t="n">
+        <v> 70</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D198" t="n">
+        <v> 60</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D199" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D200" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D201" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D202" t="n">
+        <v> 65</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D203" t="n">
+        <v> 61</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D204" t="n">
+        <v> 62</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D205" t="n">
+        <v> 60</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D206" t="n">
+        <v> 41</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D207" t="n">
+        <v> 40</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D208" t="n">
+        <v> 34</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D209" t="n">
+        <v> 35</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D210" t="n">
+        <v> 76</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D211" t="n">
+        <v> 79</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D212" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D213" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D214" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D215" t="n">
+        <v> 50</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D216" t="n">
+        <v> 48</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D217" t="n">
+        <v> 49</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D218" t="n">
+        <v> 68</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D219" t="n">
+        <v> 62</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D220" t="n">
+        <v> 64</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D221" t="n">
+        <v> 63</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D222" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D223" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D224" t="n">
+        <v> 54</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D225" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D226" t="n">
+        <v> 69</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D227" t="n">
+        <v> 57</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D228" t="n">
+        <v> 54</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D229" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D230" t="n">
+        <v> 69</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D231" t="n">
+        <v> 61</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D232" t="n">
+        <v> 62</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D233" t="n">
+        <v> 67</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D234" t="n">
+        <v> 69</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D235" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D236" t="n">
+        <v> 62</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D237" t="n">
+        <v> 63</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D238" t="n">
+        <v> 97</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D239" t="n">
+        <v> 64</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D240" t="n">
+        <v> 82</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D241" t="n">
+        <v> 76</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D242" t="n">
+        <v> 72</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D243" t="n">
+        <v> 72</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D244" t="n">
+        <v> 73</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D245" t="n">
+        <v> 75</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D246" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D247" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D248" t="n">
+        <v> 60</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D249" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D250" t="n">
+        <v> 50</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D251" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D252" t="n">
+        <v> 39</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D253" t="n">
+        <v> 40</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D254" t="n">
+        <v> 74</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D255" t="n">
+        <v> 69</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D256" t="n">
+        <v> 71</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D257" t="n">
+        <v> 70</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D258" t="n">
+        <v> 68</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D259" t="n">
+        <v> 67</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D260" t="n">
+        <v> 68</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D261" t="n">
+        <v> 67</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D262" t="n">
+        <v> 76</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D263" t="n">
+        <v> 71</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D264" t="n">
+        <v> 74</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D265" t="n">
+        <v> 76</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D266" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D267" t="n">
+        <v> 50</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D268" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D269" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D270" t="n">
+        <v> 60</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D271" t="n">
+        <v> 59</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D272" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D273" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D274" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D275" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D276" t="n">
+        <v> 51</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D277" t="n">
+        <v> 49</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D278" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D279" t="n">
+        <v> 59</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D280" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D281" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D282" t="n">
+        <v> 45</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D283" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D284" t="n">
+        <v> 50</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D285" t="n">
+        <v> 50</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D286" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D287" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D288" t="n">
+        <v> 64</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D289" t="n">
+        <v> 65</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D290" t="n">
+        <v> 65</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D291" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D292" t="n">
+        <v> 67</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D293" t="n">
+        <v> 72</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D294" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D295" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D296" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D297" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D298" t="n">
+        <v> 54</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D299" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D300" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D301" t="n">
+        <v> 51</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D302" t="n">
+        <v> 65</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D303" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D304" t="n">
+        <v> 59</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D305" t="n">
+        <v> 63</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D306" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D307" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D308" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D309" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D310" t="n">
+        <v> 38</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D311" t="n">
+        <v> 34</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D312" t="n">
+        <v> 35</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D313" t="n">
+        <v> 36</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D314" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D315" t="n">
+        <v> 42</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D316" t="n">
+        <v> 42</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D317" t="n">
+        <v> 41</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D318" t="n">
+        <v> 42</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D319" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D320" t="n">
+        <v> 42</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D321" t="n">
+        <v> 40</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D322" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D323" t="n">
+        <v> 39</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D324" t="n">
+        <v> 27</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D325" t="n">
+        <v> 23</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D326" t="n">
+        <v> 45</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D327" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D328" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D329" t="n">
+        <v> 48</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D330" t="n">
+        <v> 50</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D331" t="n">
+        <v> 45</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D332" t="n">
+        <v> 50</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D333" t="n">
+        <v> 49</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D334" t="n">
+        <v> 60</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D335" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D336" t="n">
+        <v> 60</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D337" t="n">
+        <v> 57</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D338" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D339" t="n">
+        <v> 42</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D340" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D341" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D342" t="n">
+        <v> 69</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D343" t="n">
+        <v> 41</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D344" t="n">
+        <v> 39</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D345" t="n">
+        <v> 38</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D346" t="n">
+        <v> 53</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D347" t="n">
+        <v> 54</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D348" t="n">
+        <v> 54</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D349" t="n">
+        <v> 52</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D350" t="n">
+        <v> 44</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D351" t="n">
+        <v> 37</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D352" t="n">
+        <v> 41</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D353" t="n">
+        <v> 41</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D354" t="n">
+        <v> 70</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D355" t="n">
+        <v> 68</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D356" t="n">
+        <v> 72</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D357" t="n">
+        <v> 72</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D358" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D359" t="n">
+        <v> 59</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D360" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D361" t="n">
+        <v> 71</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D362" t="n">
+        <v> 71</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D363" t="n">
+        <v> 59</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D364" t="n">
+        <v> 85</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D365" t="n">
+        <v> 73</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D366" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D367" t="n">
+        <v> 62</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D368" t="n">
+        <v> 63</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D369" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D370" t="n">
+        <v> 64</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D371" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D372" t="n">
+        <v> 65</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D373" t="n">
+        <v> 64</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D374" t="n">
+        <v> 51</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D375" t="n">
+        <v> 40</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D376" t="n">
+        <v> 41</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D377" t="n">
+        <v> 43</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D378" t="n">
+        <v> 48</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D379" t="n">
+        <v> 44</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D380" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D381" t="n">
+        <v> 48</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D382" t="n">
+        <v> 73</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D383" t="n">
+        <v> 78</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D384" t="n">
+        <v> 67</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D385" t="n">
+        <v> 74</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D386" t="n">
+        <v> 72</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D387" t="n">
+        <v> 65</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D388" t="n">
+        <v> 57</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D389" t="n">
+        <v> 62</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D390" t="n">
+        <v> 68</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D391" t="n">
+        <v> 69</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D392" t="n">
+        <v> 67</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D393" t="n">
+        <v> 69</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D394" t="n">
+        <v> 74</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D395" t="n">
+        <v> 79</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D396" t="n">
+        <v> 76</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D397" t="n">
+        <v> 84</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D398" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D399" t="n">
+        <v> 66</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D400" t="n">
+        <v> 67</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D401" t="n">
+        <v> 70</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D402" t="n">
+        <v> 44</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D403" t="n">
+        <v> 44</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D404" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D405" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D406" t="n">
+        <v> 50</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D407" t="n">
+        <v> 51</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D408" t="n">
+        <v> 47</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D409" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D410" t="n">
+        <v> 39</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D411" t="n">
+        <v> 37</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D412" t="n">
+        <v> 36</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D413" t="n">
+        <v> 35</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D414" t="n">
+        <v> 46</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D415" t="n">
+        <v> 72</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D416" t="n">
+        <v> 73</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D417" t="n">
+        <v> 77</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D418" t="n">
+        <v> 70</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D419" t="n">
+        <v> 41</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D420" t="n">
+        <v> 40</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D421" t="n">
+        <v> 40</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D422" t="n">
+        <v> 40</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D423" t="n">
+        <v> 62</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D424" t="n">
+        <v> 56</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D425" t="n">
+        <v> 58</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D426" t="n">
+        <v> 63</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D427" t="n">
+        <v> 64</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D428" t="n">
+        <v> 62</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D429" t="n">
+        <v> 62</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D430" t="n">
+        <v> 61</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D431" t="n">
+        <v> 42</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D432" t="n">
+        <v> 38</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D433" t="n">
+        <v> 40</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D434" t="n">
+        <v> 72</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D435" t="n">
+        <v> 67</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D436" t="n">
+        <v> 74</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D437" t="n">
+        <v> 75</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D438" t="n">
+        <v> 38</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D439" t="n">
+        <v> 38</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D440" t="n">
+        <v> 38</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D441" t="n">
+        <v> 37</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D442" t="n">
+        <v> 51</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D443" t="n">
+        <v> 55</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D444" t="n">
+        <v> 48</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D445" t="n">
+        <v> 50</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B446" t="s">
         <v>227</v>
       </c>
-      <c r="C113" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D113" t="n">
-        <v>67</v>
+      <c r="C446" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D446" t="n">
+        <v> 73</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D447" t="n">
+        <v> 67</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D448" t="n">
+        <v> 68</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D449" t="n">
+        <v> 67</v>
       </c>
     </row>
   </sheetData>
@@ -2760,6 +7489,15 @@
       <c r="C1" t="s">
         <v>228</v>
       </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2769,6 +7507,15 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v> 63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51</v>
+      </c>
+      <c r="E2" t="n">
+        <v>54</v>
+      </c>
+      <c r="F2" t="n">
         <v>49</v>
       </c>
     </row>
@@ -2780,6 +7527,15 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
+        <v> 60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54</v>
+      </c>
+      <c r="E3" t="n">
+        <v>56</v>
+      </c>
+      <c r="F3" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2791,6 +7547,15 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
+        <v> 79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81</v>
+      </c>
+      <c r="E4" t="n">
+        <v>85</v>
+      </c>
+      <c r="F4" t="n">
         <v>87</v>
       </c>
     </row>
@@ -2802,6 +7567,15 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
+        <v> 74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>68</v>
+      </c>
+      <c r="E5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F5" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2813,6 +7587,15 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
+        <v> 65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59</v>
+      </c>
+      <c r="E6" t="n">
+        <v>63</v>
+      </c>
+      <c r="F6" t="n">
         <v>62</v>
       </c>
     </row>
@@ -2824,6 +7607,15 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
+        <v>103</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70</v>
+      </c>
+      <c r="E7" t="n">
+        <v>53</v>
+      </c>
+      <c r="F7" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2835,6 +7627,15 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
+        <v> 65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>66</v>
+      </c>
+      <c r="E8" t="n">
+        <v>69</v>
+      </c>
+      <c r="F8" t="n">
         <v>69</v>
       </c>
     </row>
@@ -2846,6 +7647,15 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
+        <v> 78</v>
+      </c>
+      <c r="D9" t="n">
+        <v>76</v>
+      </c>
+      <c r="E9" t="n">
+        <v>65</v>
+      </c>
+      <c r="F9" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2857,6 +7667,15 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
+        <v> 69</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>66</v>
+      </c>
+      <c r="F10" t="n">
         <v>65</v>
       </c>
     </row>
@@ -2868,6 +7687,15 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
+        <v> 64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>65</v>
+      </c>
+      <c r="E11" t="n">
+        <v>68</v>
+      </c>
+      <c r="F11" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2879,6 +7707,15 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
+        <v> 70</v>
+      </c>
+      <c r="D12" t="n">
+        <v>72</v>
+      </c>
+      <c r="E12" t="n">
+        <v>69</v>
+      </c>
+      <c r="F12" t="n">
         <v>71</v>
       </c>
     </row>
@@ -2890,6 +7727,15 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
+        <v> 55</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2901,6 +7747,15 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
+        <v> 65</v>
+      </c>
+      <c r="D14" t="n">
+        <v>65</v>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2912,6 +7767,15 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
+        <v> 46</v>
+      </c>
+      <c r="D15" t="n">
+        <v>47</v>
+      </c>
+      <c r="E15" t="n">
+        <v>40</v>
+      </c>
+      <c r="F15" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2923,6 +7787,15 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
+        <v> 55</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2934,6 +7807,15 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
+        <v> 70</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74</v>
+      </c>
+      <c r="E17" t="n">
+        <v>45</v>
+      </c>
+      <c r="F17" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2945,6 +7827,15 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
+        <v> 60</v>
+      </c>
+      <c r="D18" t="n">
+        <v>55</v>
+      </c>
+      <c r="E18" t="n">
+        <v>54</v>
+      </c>
+      <c r="F18" t="n">
         <v>61</v>
       </c>
     </row>
@@ -2956,6 +7847,15 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
+        <v> 57</v>
+      </c>
+      <c r="D19" t="n">
+        <v>76</v>
+      </c>
+      <c r="E19" t="n">
+        <v>68</v>
+      </c>
+      <c r="F19" t="n">
         <v>63</v>
       </c>
     </row>
@@ -2967,6 +7867,15 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
+        <v> 59</v>
+      </c>
+      <c r="D20" t="n">
+        <v>61</v>
+      </c>
+      <c r="E20" t="n">
+        <v>62</v>
+      </c>
+      <c r="F20" t="n">
         <v>64</v>
       </c>
     </row>
@@ -2978,6 +7887,15 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
+        <v> 68</v>
+      </c>
+      <c r="D21" t="n">
+        <v>61</v>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
         <v>63</v>
       </c>
     </row>
@@ -2989,6 +7907,15 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
+        <v> 56</v>
+      </c>
+      <c r="D22" t="n">
+        <v>46</v>
+      </c>
+      <c r="E22" t="n">
+        <v>50</v>
+      </c>
+      <c r="F22" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3000,6 +7927,15 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
+        <v> 40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38</v>
+      </c>
+      <c r="E23" t="n">
+        <v>37</v>
+      </c>
+      <c r="F23" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3011,6 +7947,15 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
+        <v> 65</v>
+      </c>
+      <c r="D24" t="n">
+        <v>65</v>
+      </c>
+      <c r="E24" t="n">
+        <v>64</v>
+      </c>
+      <c r="F24" t="n">
         <v>65</v>
       </c>
     </row>
@@ -3022,6 +7967,15 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
+        <v> 74</v>
+      </c>
+      <c r="D25" t="n">
+        <v>77</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75</v>
+      </c>
+      <c r="F25" t="n">
         <v>77</v>
       </c>
     </row>
@@ -3033,6 +7987,15 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
+        <v> 54</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42</v>
+      </c>
+      <c r="E26" t="n">
+        <v>43</v>
+      </c>
+      <c r="F26" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3044,6 +8007,15 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
+        <v> 74</v>
+      </c>
+      <c r="D27" t="n">
+        <v>79</v>
+      </c>
+      <c r="E27" t="n">
+        <v>59</v>
+      </c>
+      <c r="F27" t="n">
         <v>65</v>
       </c>
     </row>
@@ -3055,6 +8027,15 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
+        <v> 91</v>
+      </c>
+      <c r="D28" t="n">
+        <v>85</v>
+      </c>
+      <c r="E28" t="n">
+        <v>64</v>
+      </c>
+      <c r="F28" t="n">
         <v>64</v>
       </c>
     </row>
@@ -3066,6 +8047,15 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
+        <v> 69</v>
+      </c>
+      <c r="D29" t="n">
+        <v>69</v>
+      </c>
+      <c r="E29" t="n">
+        <v>73</v>
+      </c>
+      <c r="F29" t="n">
         <v>73</v>
       </c>
     </row>
@@ -3077,6 +8067,15 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
+        <v> 54</v>
+      </c>
+      <c r="D30" t="n">
+        <v>55</v>
+      </c>
+      <c r="E30" t="n">
+        <v>55</v>
+      </c>
+      <c r="F30" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3088,6 +8087,15 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
+        <v> 56</v>
+      </c>
+      <c r="D31" t="n">
+        <v>45</v>
+      </c>
+      <c r="E31" t="n">
+        <v>47</v>
+      </c>
+      <c r="F31" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3099,6 +8107,15 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
+        <v> 57</v>
+      </c>
+      <c r="D32" t="n">
+        <v>53</v>
+      </c>
+      <c r="E32" t="n">
+        <v>57</v>
+      </c>
+      <c r="F32" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3110,6 +8127,15 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
+        <v> 43</v>
+      </c>
+      <c r="D33" t="n">
+        <v>44</v>
+      </c>
+      <c r="E33" t="n">
+        <v>43</v>
+      </c>
+      <c r="F33" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3121,6 +8147,15 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
+        <v> 53</v>
+      </c>
+      <c r="D34" t="n">
+        <v>45</v>
+      </c>
+      <c r="E34" t="n">
+        <v>45</v>
+      </c>
+      <c r="F34" t="n">
         <v>43</v>
       </c>
     </row>
@@ -3132,6 +8167,15 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
+        <v> 51</v>
+      </c>
+      <c r="D35" t="n">
+        <v>54</v>
+      </c>
+      <c r="E35" t="n">
+        <v>55</v>
+      </c>
+      <c r="F35" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3143,6 +8187,15 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
+        <v> 48</v>
+      </c>
+      <c r="D36" t="n">
+        <v>37</v>
+      </c>
+      <c r="E36" t="n">
+        <v>46</v>
+      </c>
+      <c r="F36" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3154,6 +8207,15 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
+        <v> 82</v>
+      </c>
+      <c r="D37" t="n">
+        <v>72</v>
+      </c>
+      <c r="E37" t="n">
+        <v>86</v>
+      </c>
+      <c r="F37" t="n">
         <v>92</v>
       </c>
     </row>
@@ -3165,6 +8227,15 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
+        <v> 39</v>
+      </c>
+      <c r="D38" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" t="n">
+        <v>40</v>
+      </c>
+      <c r="F38" t="n">
         <v>39</v>
       </c>
     </row>
@@ -3176,6 +8247,15 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
+        <v> 59</v>
+      </c>
+      <c r="D39" t="n">
+        <v>58</v>
+      </c>
+      <c r="E39" t="n">
+        <v>53</v>
+      </c>
+      <c r="F39" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3187,6 +8267,15 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
+        <v> 75</v>
+      </c>
+      <c r="D40" t="n">
+        <v>75</v>
+      </c>
+      <c r="E40" t="n">
+        <v>79</v>
+      </c>
+      <c r="F40" t="n">
         <v>85</v>
       </c>
     </row>
@@ -3198,6 +8287,15 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
+        <v> 35</v>
+      </c>
+      <c r="D41" t="n">
+        <v>32</v>
+      </c>
+      <c r="E41" t="n">
+        <v>30</v>
+      </c>
+      <c r="F41" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3209,6 +8307,15 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
+        <v> 70</v>
+      </c>
+      <c r="D42" t="n">
+        <v>47</v>
+      </c>
+      <c r="E42" t="n">
+        <v>54</v>
+      </c>
+      <c r="F42" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3220,6 +8327,15 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
+        <v> 52</v>
+      </c>
+      <c r="D43" t="n">
+        <v>57</v>
+      </c>
+      <c r="E43" t="n">
+        <v>54</v>
+      </c>
+      <c r="F43" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3231,6 +8347,15 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
+        <v> 43</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>43</v>
+      </c>
+      <c r="F44" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3242,6 +8367,15 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
+        <v> 60</v>
+      </c>
+      <c r="D45" t="n">
+        <v>56</v>
+      </c>
+      <c r="E45" t="n">
+        <v>55</v>
+      </c>
+      <c r="F45" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3253,6 +8387,15 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
+        <v> 59</v>
+      </c>
+      <c r="D46" t="n">
+        <v>59</v>
+      </c>
+      <c r="E46" t="n">
+        <v>60</v>
+      </c>
+      <c r="F46" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3264,6 +8407,15 @@
         <v>95</v>
       </c>
       <c r="C47" t="n">
+        <v> 51</v>
+      </c>
+      <c r="D47" t="n">
+        <v>48</v>
+      </c>
+      <c r="E47" t="n">
+        <v>45</v>
+      </c>
+      <c r="F47" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3275,6 +8427,15 @@
         <v>97</v>
       </c>
       <c r="C48" t="n">
+        <v> 45</v>
+      </c>
+      <c r="D48" t="n">
+        <v>44</v>
+      </c>
+      <c r="E48" t="n">
+        <v>47</v>
+      </c>
+      <c r="F48" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3286,6 +8447,15 @@
         <v>99</v>
       </c>
       <c r="C49" t="n">
+        <v> 51</v>
+      </c>
+      <c r="D49" t="n">
+        <v>46</v>
+      </c>
+      <c r="E49" t="n">
+        <v>46</v>
+      </c>
+      <c r="F49" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3297,6 +8467,15 @@
         <v>101</v>
       </c>
       <c r="C50" t="n">
+        <v> 61</v>
+      </c>
+      <c r="D50" t="n">
+        <v>61</v>
+      </c>
+      <c r="E50" t="n">
+        <v>66</v>
+      </c>
+      <c r="F50" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3308,6 +8487,15 @@
         <v>103</v>
       </c>
       <c r="C51" t="n">
+        <v> 60</v>
+      </c>
+      <c r="D51" t="n">
+        <v>56</v>
+      </c>
+      <c r="E51" t="n">
+        <v>58</v>
+      </c>
+      <c r="F51" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3319,6 +8507,15 @@
         <v>105</v>
       </c>
       <c r="C52" t="n">
+        <v> 65</v>
+      </c>
+      <c r="D52" t="n">
+        <v>61</v>
+      </c>
+      <c r="E52" t="n">
+        <v>62</v>
+      </c>
+      <c r="F52" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3330,6 +8527,15 @@
         <v>107</v>
       </c>
       <c r="C53" t="n">
+        <v> 41</v>
+      </c>
+      <c r="D53" t="n">
+        <v>40</v>
+      </c>
+      <c r="E53" t="n">
+        <v>34</v>
+      </c>
+      <c r="F53" t="n">
         <v>35</v>
       </c>
     </row>
@@ -3341,6 +8547,15 @@
         <v>109</v>
       </c>
       <c r="C54" t="n">
+        <v> 76</v>
+      </c>
+      <c r="D54" t="n">
+        <v>79</v>
+      </c>
+      <c r="E54" t="n">
+        <v>55</v>
+      </c>
+      <c r="F54" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3352,6 +8567,15 @@
         <v>111</v>
       </c>
       <c r="C55" t="n">
+        <v> 52</v>
+      </c>
+      <c r="D55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" t="n">
+        <v>48</v>
+      </c>
+      <c r="F55" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3363,6 +8587,15 @@
         <v>113</v>
       </c>
       <c r="C56" t="n">
+        <v> 68</v>
+      </c>
+      <c r="D56" t="n">
+        <v>62</v>
+      </c>
+      <c r="E56" t="n">
+        <v>64</v>
+      </c>
+      <c r="F56" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3374,6 +8607,15 @@
         <v>115</v>
       </c>
       <c r="C57" t="n">
+        <v> 56</v>
+      </c>
+      <c r="D57" t="n">
+        <v>47</v>
+      </c>
+      <c r="E57" t="n">
+        <v>54</v>
+      </c>
+      <c r="F57" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3385,6 +8627,15 @@
         <v>117</v>
       </c>
       <c r="C58" t="n">
+        <v> 69</v>
+      </c>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="n">
+        <v>54</v>
+      </c>
+      <c r="F58" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3396,6 +8647,15 @@
         <v>119</v>
       </c>
       <c r="C59" t="n">
+        <v> 69</v>
+      </c>
+      <c r="D59" t="n">
+        <v>61</v>
+      </c>
+      <c r="E59" t="n">
+        <v>62</v>
+      </c>
+      <c r="F59" t="n">
         <v>67</v>
       </c>
     </row>
@@ -3407,6 +8667,15 @@
         <v>121</v>
       </c>
       <c r="C60" t="n">
+        <v> 69</v>
+      </c>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>62</v>
+      </c>
+      <c r="F60" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3418,6 +8687,15 @@
         <v>123</v>
       </c>
       <c r="C61" t="n">
+        <v> 97</v>
+      </c>
+      <c r="D61" t="n">
+        <v>64</v>
+      </c>
+      <c r="E61" t="n">
+        <v>82</v>
+      </c>
+      <c r="F61" t="n">
         <v>76</v>
       </c>
     </row>
@@ -3429,6 +8707,15 @@
         <v>125</v>
       </c>
       <c r="C62" t="n">
+        <v> 72</v>
+      </c>
+      <c r="D62" t="n">
+        <v>72</v>
+      </c>
+      <c r="E62" t="n">
+        <v>73</v>
+      </c>
+      <c r="F62" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3440,6 +8727,15 @@
         <v>127</v>
       </c>
       <c r="C63" t="n">
+        <v> 52</v>
+      </c>
+      <c r="D63" t="n">
+        <v>58</v>
+      </c>
+      <c r="E63" t="n">
+        <v>60</v>
+      </c>
+      <c r="F63" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3451,6 +8747,15 @@
         <v>129</v>
       </c>
       <c r="C64" t="n">
+        <v> 50</v>
+      </c>
+      <c r="D64" t="n">
+        <v>43</v>
+      </c>
+      <c r="E64" t="n">
+        <v>39</v>
+      </c>
+      <c r="F64" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3462,6 +8767,15 @@
         <v>131</v>
       </c>
       <c r="C65" t="n">
+        <v> 74</v>
+      </c>
+      <c r="D65" t="n">
+        <v>69</v>
+      </c>
+      <c r="E65" t="n">
+        <v>71</v>
+      </c>
+      <c r="F65" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3473,6 +8787,15 @@
         <v>133</v>
       </c>
       <c r="C66" t="n">
+        <v> 68</v>
+      </c>
+      <c r="D66" t="n">
+        <v>67</v>
+      </c>
+      <c r="E66" t="n">
+        <v>68</v>
+      </c>
+      <c r="F66" t="n">
         <v>67</v>
       </c>
     </row>
@@ -3484,6 +8807,15 @@
         <v>135</v>
       </c>
       <c r="C67" t="n">
+        <v> 76</v>
+      </c>
+      <c r="D67" t="n">
+        <v>71</v>
+      </c>
+      <c r="E67" t="n">
+        <v>74</v>
+      </c>
+      <c r="F67" t="n">
         <v>76</v>
       </c>
     </row>
@@ -3495,6 +8827,15 @@
         <v>137</v>
       </c>
       <c r="C68" t="n">
+        <v> 56</v>
+      </c>
+      <c r="D68" t="n">
+        <v>50</v>
+      </c>
+      <c r="E68" t="n">
+        <v>56</v>
+      </c>
+      <c r="F68" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3506,6 +8847,15 @@
         <v>139</v>
       </c>
       <c r="C69" t="n">
+        <v> 60</v>
+      </c>
+      <c r="D69" t="n">
+        <v>59</v>
+      </c>
+      <c r="E69" t="n">
+        <v>53</v>
+      </c>
+      <c r="F69" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3517,6 +8867,15 @@
         <v>141</v>
       </c>
       <c r="C70" t="n">
+        <v> 52</v>
+      </c>
+      <c r="D70" t="n">
+        <v>52</v>
+      </c>
+      <c r="E70" t="n">
+        <v>51</v>
+      </c>
+      <c r="F70" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3528,6 +8887,15 @@
         <v>143</v>
       </c>
       <c r="C71" t="n">
+        <v> 55</v>
+      </c>
+      <c r="D71" t="n">
+        <v>59</v>
+      </c>
+      <c r="E71" t="n">
+        <v>55</v>
+      </c>
+      <c r="F71" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3539,6 +8907,15 @@
         <v>145</v>
       </c>
       <c r="C72" t="n">
+        <v> 45</v>
+      </c>
+      <c r="D72" t="n">
+        <v>47</v>
+      </c>
+      <c r="E72" t="n">
+        <v>50</v>
+      </c>
+      <c r="F72" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3550,6 +8927,15 @@
         <v>147</v>
       </c>
       <c r="C73" t="n">
+        <v> 56</v>
+      </c>
+      <c r="D73" t="n">
+        <v>58</v>
+      </c>
+      <c r="E73" t="n">
+        <v>64</v>
+      </c>
+      <c r="F73" t="n">
         <v>65</v>
       </c>
     </row>
@@ -3561,6 +8947,15 @@
         <v>149</v>
       </c>
       <c r="C74" t="n">
+        <v> 65</v>
+      </c>
+      <c r="D74" t="n">
+        <v>66</v>
+      </c>
+      <c r="E74" t="n">
+        <v>67</v>
+      </c>
+      <c r="F74" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3572,6 +8967,15 @@
         <v>151</v>
       </c>
       <c r="C75" t="n">
+        <v> 46</v>
+      </c>
+      <c r="D75" t="n">
+        <v>47</v>
+      </c>
+      <c r="E75" t="n">
+        <v>43</v>
+      </c>
+      <c r="F75" t="n">
         <v>43</v>
       </c>
     </row>
@@ -3583,6 +8987,15 @@
         <v>153</v>
       </c>
       <c r="C76" t="n">
+        <v> 54</v>
+      </c>
+      <c r="D76" t="n">
+        <v>52</v>
+      </c>
+      <c r="E76" t="n">
+        <v>52</v>
+      </c>
+      <c r="F76" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3594,6 +9007,15 @@
         <v>155</v>
       </c>
       <c r="C77" t="n">
+        <v> 65</v>
+      </c>
+      <c r="D77" t="n">
+        <v>66</v>
+      </c>
+      <c r="E77" t="n">
+        <v>59</v>
+      </c>
+      <c r="F77" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3605,6 +9027,15 @@
         <v>157</v>
       </c>
       <c r="C78" t="n">
+        <v> 58</v>
+      </c>
+      <c r="D78" t="n">
+        <v>55</v>
+      </c>
+      <c r="E78" t="n">
+        <v>52</v>
+      </c>
+      <c r="F78" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3616,6 +9047,15 @@
         <v>159</v>
       </c>
       <c r="C79" t="n">
+        <v> 38</v>
+      </c>
+      <c r="D79" t="n">
+        <v>34</v>
+      </c>
+      <c r="E79" t="n">
+        <v>35</v>
+      </c>
+      <c r="F79" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3627,6 +9067,15 @@
         <v>161</v>
       </c>
       <c r="C80" t="n">
+        <v> 43</v>
+      </c>
+      <c r="D80" t="n">
+        <v>42</v>
+      </c>
+      <c r="E80" t="n">
+        <v>42</v>
+      </c>
+      <c r="F80" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3638,6 +9087,15 @@
         <v>163</v>
       </c>
       <c r="C81" t="n">
+        <v> 42</v>
+      </c>
+      <c r="D81" t="n">
+        <v>43</v>
+      </c>
+      <c r="E81" t="n">
+        <v>42</v>
+      </c>
+      <c r="F81" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3649,6 +9107,15 @@
         <v>165</v>
       </c>
       <c r="C82" t="n">
+        <v> 66</v>
+      </c>
+      <c r="D82" t="n">
+        <v>39</v>
+      </c>
+      <c r="E82" t="n">
+        <v>27</v>
+      </c>
+      <c r="F82" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3660,6 +9127,15 @@
         <v>167</v>
       </c>
       <c r="C83" t="n">
+        <v> 45</v>
+      </c>
+      <c r="D83" t="n">
+        <v>47</v>
+      </c>
+      <c r="E83" t="n">
+        <v>47</v>
+      </c>
+      <c r="F83" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3671,6 +9147,15 @@
         <v>169</v>
       </c>
       <c r="C84" t="n">
+        <v> 50</v>
+      </c>
+      <c r="D84" t="n">
+        <v>45</v>
+      </c>
+      <c r="E84" t="n">
+        <v>50</v>
+      </c>
+      <c r="F84" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3682,6 +9167,15 @@
         <v>171</v>
       </c>
       <c r="C85" t="n">
+        <v> 60</v>
+      </c>
+      <c r="D85" t="n">
+        <v>58</v>
+      </c>
+      <c r="E85" t="n">
+        <v>60</v>
+      </c>
+      <c r="F85" t="n">
         <v>57</v>
       </c>
     </row>
@@ -3693,6 +9187,15 @@
         <v>173</v>
       </c>
       <c r="C86" t="n">
+        <v> 46</v>
+      </c>
+      <c r="D86" t="n">
+        <v>42</v>
+      </c>
+      <c r="E86" t="n">
+        <v>47</v>
+      </c>
+      <c r="F86" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3704,6 +9207,15 @@
         <v>175</v>
       </c>
       <c r="C87" t="n">
+        <v> 69</v>
+      </c>
+      <c r="D87" t="n">
+        <v>41</v>
+      </c>
+      <c r="E87" t="n">
+        <v>39</v>
+      </c>
+      <c r="F87" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3715,6 +9227,15 @@
         <v>177</v>
       </c>
       <c r="C88" t="n">
+        <v> 53</v>
+      </c>
+      <c r="D88" t="n">
+        <v>54</v>
+      </c>
+      <c r="E88" t="n">
+        <v>54</v>
+      </c>
+      <c r="F88" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3726,6 +9247,15 @@
         <v>179</v>
       </c>
       <c r="C89" t="n">
+        <v> 44</v>
+      </c>
+      <c r="D89" t="n">
+        <v>37</v>
+      </c>
+      <c r="E89" t="n">
+        <v>41</v>
+      </c>
+      <c r="F89" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3737,6 +9267,15 @@
         <v>181</v>
       </c>
       <c r="C90" t="n">
+        <v> 70</v>
+      </c>
+      <c r="D90" t="n">
+        <v>68</v>
+      </c>
+      <c r="E90" t="n">
+        <v>72</v>
+      </c>
+      <c r="F90" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3748,6 +9287,15 @@
         <v>183</v>
       </c>
       <c r="C91" t="n">
+        <v> 66</v>
+      </c>
+      <c r="D91" t="n">
+        <v>59</v>
+      </c>
+      <c r="E91" t="n">
+        <v>66</v>
+      </c>
+      <c r="F91" t="n">
         <v>71</v>
       </c>
     </row>
@@ -3759,6 +9307,15 @@
         <v>185</v>
       </c>
       <c r="C92" t="n">
+        <v> 71</v>
+      </c>
+      <c r="D92" t="n">
+        <v>59</v>
+      </c>
+      <c r="E92" t="n">
+        <v>85</v>
+      </c>
+      <c r="F92" t="n">
         <v>73</v>
       </c>
     </row>
@@ -3770,6 +9327,15 @@
         <v>187</v>
       </c>
       <c r="C93" t="n">
+        <v> 66</v>
+      </c>
+      <c r="D93" t="n">
+        <v>62</v>
+      </c>
+      <c r="E93" t="n">
+        <v>63</v>
+      </c>
+      <c r="F93" t="n">
         <v>66</v>
       </c>
     </row>
@@ -3781,6 +9347,15 @@
         <v>189</v>
       </c>
       <c r="C94" t="n">
+        <v> 64</v>
+      </c>
+      <c r="D94" t="n">
+        <v>66</v>
+      </c>
+      <c r="E94" t="n">
+        <v>65</v>
+      </c>
+      <c r="F94" t="n">
         <v>64</v>
       </c>
     </row>
@@ -3792,6 +9367,15 @@
         <v>191</v>
       </c>
       <c r="C95" t="n">
+        <v> 51</v>
+      </c>
+      <c r="D95" t="n">
+        <v>40</v>
+      </c>
+      <c r="E95" t="n">
+        <v>41</v>
+      </c>
+      <c r="F95" t="n">
         <v>43</v>
       </c>
     </row>
@@ -3803,6 +9387,15 @@
         <v>193</v>
       </c>
       <c r="C96" t="n">
+        <v> 48</v>
+      </c>
+      <c r="D96" t="n">
+        <v>44</v>
+      </c>
+      <c r="E96" t="n">
+        <v>46</v>
+      </c>
+      <c r="F96" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3814,6 +9407,15 @@
         <v>195</v>
       </c>
       <c r="C97" t="n">
+        <v> 73</v>
+      </c>
+      <c r="D97" t="n">
+        <v>78</v>
+      </c>
+      <c r="E97" t="n">
+        <v>67</v>
+      </c>
+      <c r="F97" t="n">
         <v>74</v>
       </c>
     </row>
@@ -3825,6 +9427,15 @@
         <v>197</v>
       </c>
       <c r="C98" t="n">
+        <v> 72</v>
+      </c>
+      <c r="D98" t="n">
+        <v>65</v>
+      </c>
+      <c r="E98" t="n">
+        <v>57</v>
+      </c>
+      <c r="F98" t="n">
         <v>62</v>
       </c>
     </row>
@@ -3836,6 +9447,15 @@
         <v>199</v>
       </c>
       <c r="C99" t="n">
+        <v> 68</v>
+      </c>
+      <c r="D99" t="n">
+        <v>69</v>
+      </c>
+      <c r="E99" t="n">
+        <v>67</v>
+      </c>
+      <c r="F99" t="n">
         <v>69</v>
       </c>
     </row>
@@ -3847,6 +9467,15 @@
         <v>201</v>
       </c>
       <c r="C100" t="n">
+        <v> 74</v>
+      </c>
+      <c r="D100" t="n">
+        <v>79</v>
+      </c>
+      <c r="E100" t="n">
+        <v>76</v>
+      </c>
+      <c r="F100" t="n">
         <v>84</v>
       </c>
     </row>
@@ -3858,6 +9487,15 @@
         <v>203</v>
       </c>
       <c r="C101" t="n">
+        <v> 66</v>
+      </c>
+      <c r="D101" t="n">
+        <v>66</v>
+      </c>
+      <c r="E101" t="n">
+        <v>67</v>
+      </c>
+      <c r="F101" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3869,6 +9507,15 @@
         <v>205</v>
       </c>
       <c r="C102" t="n">
+        <v> 44</v>
+      </c>
+      <c r="D102" t="n">
+        <v>44</v>
+      </c>
+      <c r="E102" t="n">
+        <v>46</v>
+      </c>
+      <c r="F102" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3880,6 +9527,15 @@
         <v>207</v>
       </c>
       <c r="C103" t="n">
+        <v> 50</v>
+      </c>
+      <c r="D103" t="n">
+        <v>51</v>
+      </c>
+      <c r="E103" t="n">
+        <v>47</v>
+      </c>
+      <c r="F103" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3891,6 +9547,15 @@
         <v>209</v>
       </c>
       <c r="C104" t="n">
+        <v> 39</v>
+      </c>
+      <c r="D104" t="n">
+        <v>37</v>
+      </c>
+      <c r="E104" t="n">
+        <v>36</v>
+      </c>
+      <c r="F104" t="n">
         <v>35</v>
       </c>
     </row>
@@ -3902,6 +9567,15 @@
         <v>211</v>
       </c>
       <c r="C105" t="n">
+        <v> 46</v>
+      </c>
+      <c r="D105" t="n">
+        <v>72</v>
+      </c>
+      <c r="E105" t="n">
+        <v>73</v>
+      </c>
+      <c r="F105" t="n">
         <v>77</v>
       </c>
     </row>
@@ -3913,6 +9587,15 @@
         <v>213</v>
       </c>
       <c r="C106" t="n">
+        <v> 70</v>
+      </c>
+      <c r="D106" t="n">
+        <v>41</v>
+      </c>
+      <c r="E106" t="n">
+        <v>40</v>
+      </c>
+      <c r="F106" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3924,6 +9607,15 @@
         <v>215</v>
       </c>
       <c r="C107" t="n">
+        <v> 40</v>
+      </c>
+      <c r="D107" t="n">
+        <v>62</v>
+      </c>
+      <c r="E107" t="n">
+        <v>56</v>
+      </c>
+      <c r="F107" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3935,6 +9627,15 @@
         <v>217</v>
       </c>
       <c r="C108" t="n">
+        <v> 63</v>
+      </c>
+      <c r="D108" t="n">
+        <v>64</v>
+      </c>
+      <c r="E108" t="n">
+        <v>62</v>
+      </c>
+      <c r="F108" t="n">
         <v>62</v>
       </c>
     </row>
@@ -3946,6 +9647,15 @@
         <v>219</v>
       </c>
       <c r="C109" t="n">
+        <v> 61</v>
+      </c>
+      <c r="D109" t="n">
+        <v>42</v>
+      </c>
+      <c r="E109" t="n">
+        <v>38</v>
+      </c>
+      <c r="F109" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3957,6 +9667,15 @@
         <v>221</v>
       </c>
       <c r="C110" t="n">
+        <v> 72</v>
+      </c>
+      <c r="D110" t="n">
+        <v>67</v>
+      </c>
+      <c r="E110" t="n">
+        <v>74</v>
+      </c>
+      <c r="F110" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3968,6 +9687,15 @@
         <v>223</v>
       </c>
       <c r="C111" t="n">
+        <v> 38</v>
+      </c>
+      <c r="D111" t="n">
+        <v>38</v>
+      </c>
+      <c r="E111" t="n">
+        <v>38</v>
+      </c>
+      <c r="F111" t="n">
         <v>37</v>
       </c>
     </row>
@@ -3979,6 +9707,15 @@
         <v>225</v>
       </c>
       <c r="C112" t="n">
+        <v> 51</v>
+      </c>
+      <c r="D112" t="n">
+        <v>55</v>
+      </c>
+      <c r="E112" t="n">
+        <v>48</v>
+      </c>
+      <c r="F112" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3990,6 +9727,15 @@
         <v>227</v>
       </c>
       <c r="C113" t="n">
+        <v> 73</v>
+      </c>
+      <c r="D113" t="n">
+        <v>67</v>
+      </c>
+      <c r="E113" t="n">
+        <v>68</v>
+      </c>
+      <c r="F113" t="n">
         <v>67</v>
       </c>
     </row>

--- a/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
+++ b/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
@@ -715,13 +715,13 @@
     <t>Name: uganda-primary-stu-teach-ratio-gov</t>
   </si>
   <si>
-    <t>Description: Primary Pupil/Teacher Ratio - Government Schools (Per Child)</t>
+    <t>Description: Primary pupilâ€“teacher ratio â€“ government schools (per child)</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Education Statistics Abstracts 2010-2013 - Ministry of Education</t>
+    <t>Source: Education statistics abstracts 2010â€“2013 â€“ Ministry of Education</t>
   </si>
   <si>
     <t>Source-link: http://www.education.go.ug/data/smenu/4/Statistics%20Abstract%20.html</t>

--- a/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
+++ b/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
@@ -715,7 +715,7 @@
     <t>Name: uganda-primary-stu-teach-ratio-gov</t>
   </si>
   <si>
-    <t>Description: Primary pupilâ€“teacher ratio â€“ government schools (per child)</t>
+    <t>Description: Primary pupil to teacher ratio â€“ government schools</t>
   </si>
   <si>
     <t>Units of measure: unit</t>

--- a/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
+++ b/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
+++ b/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,337 +31,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2010</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -777,52 +1113,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1193,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2010</v>
       </c>
@@ -869,7 +1207,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="n">
         <v>2011</v>
       </c>
@@ -881,7 +1221,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="n">
         <v>2012</v>
       </c>
@@ -893,7 +1235,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="n">
         <v>2013</v>
       </c>
@@ -903,9 +1247,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" t="n">
         <v>2010</v>
       </c>
@@ -915,9 +1261,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" t="n">
         <v>2011</v>
       </c>
@@ -927,9 +1275,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" t="n">
         <v>2012</v>
       </c>
@@ -939,9 +1289,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" t="n">
         <v>2013</v>
       </c>
@@ -951,9 +1303,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="n">
         <v>2010</v>
       </c>
@@ -963,9 +1317,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" t="n">
         <v>2011</v>
       </c>
@@ -975,9 +1331,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12"/>
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" t="n">
         <v>2012</v>
       </c>
@@ -987,9 +1345,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13"/>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" t="n">
         <v>2013</v>
       </c>
@@ -999,9 +1359,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14"/>
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" t="n">
         <v>2010</v>
       </c>
@@ -1011,9 +1373,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15"/>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" t="n">
         <v>2011</v>
       </c>
@@ -1023,9 +1387,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16"/>
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" t="n">
         <v>2012</v>
       </c>
@@ -1035,9 +1401,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17"/>
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
       <c r="C17" t="n">
         <v>2013</v>
       </c>
@@ -1047,9 +1415,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18"/>
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" t="n">
         <v>2010</v>
       </c>
@@ -1059,9 +1429,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19"/>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
       <c r="C19" t="n">
         <v>2011</v>
       </c>
@@ -1071,9 +1443,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20"/>
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" t="n">
         <v>2012</v>
       </c>
@@ -1083,9 +1457,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21"/>
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" t="n">
         <v>2013</v>
       </c>
@@ -1095,9 +1471,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22"/>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" t="n">
         <v>2010</v>
       </c>
@@ -1107,9 +1485,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23"/>
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" t="n">
         <v>2011</v>
       </c>
@@ -1119,9 +1499,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24"/>
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
       <c r="C24" t="n">
         <v>2012</v>
       </c>
@@ -1131,9 +1513,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25"/>
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" t="n">
         <v>2013</v>
       </c>
@@ -1143,9 +1527,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26"/>
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
       <c r="C26" t="n">
         <v>2010</v>
       </c>
@@ -1155,9 +1541,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27"/>
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" t="n">
         <v>2011</v>
       </c>
@@ -1167,9 +1555,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28"/>
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
       <c r="C28" t="n">
         <v>2012</v>
       </c>
@@ -1179,9 +1569,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29"/>
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
       <c r="C29" t="n">
         <v>2013</v>
       </c>
@@ -1191,9 +1583,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30"/>
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
       <c r="C30" t="n">
         <v>2010</v>
       </c>
@@ -1203,9 +1597,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31"/>
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
       <c r="C31" t="n">
         <v>2011</v>
       </c>
@@ -1215,9 +1611,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32"/>
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" t="n">
         <v>2012</v>
       </c>
@@ -1227,9 +1625,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33"/>
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" t="n">
         <v>2013</v>
       </c>
@@ -1239,9 +1639,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34"/>
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
       <c r="C34" t="n">
         <v>2010</v>
       </c>
@@ -1251,9 +1653,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35"/>
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
       <c r="C35" t="n">
         <v>2011</v>
       </c>
@@ -1263,9 +1667,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36"/>
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" t="n">
         <v>2012</v>
       </c>
@@ -1275,9 +1681,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37"/>
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" t="n">
         <v>2013</v>
       </c>
@@ -1287,9 +1695,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38"/>
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
       <c r="C38" t="n">
         <v>2010</v>
       </c>
@@ -1299,9 +1709,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39"/>
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
       <c r="C39" t="n">
         <v>2011</v>
       </c>
@@ -1311,9 +1723,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40"/>
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
       <c r="C40" t="n">
         <v>2012</v>
       </c>
@@ -1323,9 +1737,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41"/>
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
       <c r="C41" t="n">
         <v>2013</v>
       </c>
@@ -1335,9 +1751,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42"/>
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
       <c r="C42" t="n">
         <v>2010</v>
       </c>
@@ -1347,9 +1765,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43"/>
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" t="n">
         <v>2011</v>
       </c>
@@ -1359,9 +1779,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44"/>
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
       <c r="C44" t="n">
         <v>2012</v>
       </c>
@@ -1371,9 +1793,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45"/>
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
       <c r="C45" t="n">
         <v>2013</v>
       </c>
@@ -1383,9 +1807,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46"/>
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
       <c r="C46" t="n">
         <v>2010</v>
       </c>
@@ -1395,9 +1821,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47"/>
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
       <c r="C47" t="n">
         <v>2011</v>
       </c>
@@ -1407,9 +1835,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48"/>
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
       <c r="C48" t="n">
         <v>2012</v>
       </c>
@@ -1419,9 +1849,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49"/>
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
       <c r="C49" t="n">
         <v>2013</v>
       </c>
@@ -1431,9 +1863,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50"/>
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
       <c r="C50" t="n">
         <v>2010</v>
       </c>
@@ -1443,9 +1877,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51"/>
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
       <c r="C51" t="n">
         <v>2011</v>
       </c>
@@ -1455,9 +1891,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52"/>
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
       <c r="C52" t="n">
         <v>2012</v>
       </c>
@@ -1467,9 +1905,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53"/>
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
       <c r="C53" t="n">
         <v>2013</v>
       </c>
@@ -1479,9 +1919,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54"/>
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
       <c r="C54" t="n">
         <v>2010</v>
       </c>
@@ -1491,9 +1933,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55"/>
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
       <c r="C55" t="n">
         <v>2011</v>
       </c>
@@ -1503,9 +1947,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56"/>
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
       <c r="C56" t="n">
         <v>2012</v>
       </c>
@@ -1515,9 +1961,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57"/>
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
       <c r="C57" t="n">
         <v>2013</v>
       </c>
@@ -1527,9 +1975,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58"/>
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
       <c r="C58" t="n">
         <v>2010</v>
       </c>
@@ -1539,9 +1989,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59"/>
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
       <c r="C59" t="n">
         <v>2011</v>
       </c>
@@ -1551,9 +2003,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60"/>
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
       <c r="C60" t="n">
         <v>2012</v>
       </c>
@@ -1563,9 +2017,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61"/>
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
       <c r="C61" t="n">
         <v>2013</v>
       </c>
@@ -1575,9 +2031,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62"/>
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
       <c r="C62" t="n">
         <v>2010</v>
       </c>
@@ -1587,9 +2045,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63"/>
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
       <c r="C63" t="n">
         <v>2011</v>
       </c>
@@ -1599,9 +2059,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64"/>
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
       <c r="C64" t="n">
         <v>2012</v>
       </c>
@@ -1611,9 +2073,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65"/>
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
       <c r="C65" t="n">
         <v>2013</v>
       </c>
@@ -1623,9 +2087,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66"/>
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
       <c r="C66" t="n">
         <v>2010</v>
       </c>
@@ -1635,9 +2101,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67"/>
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
       <c r="C67" t="n">
         <v>2011</v>
       </c>
@@ -1647,9 +2115,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68"/>
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
       <c r="C68" t="n">
         <v>2012</v>
       </c>
@@ -1659,9 +2129,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69"/>
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
       <c r="C69" t="n">
         <v>2013</v>
       </c>
@@ -1671,9 +2143,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70"/>
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
       <c r="C70" t="n">
         <v>2010</v>
       </c>
@@ -1683,9 +2157,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71"/>
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
       <c r="C71" t="n">
         <v>2011</v>
       </c>
@@ -1695,9 +2171,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72"/>
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
       <c r="C72" t="n">
         <v>2012</v>
       </c>
@@ -1707,9 +2185,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73"/>
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
       <c r="C73" t="n">
         <v>2013</v>
       </c>
@@ -1719,9 +2199,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74"/>
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
       <c r="C74" t="n">
         <v>2010</v>
       </c>
@@ -1731,9 +2213,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75"/>
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
       <c r="C75" t="n">
         <v>2011</v>
       </c>
@@ -1743,9 +2227,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76"/>
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
       <c r="C76" t="n">
         <v>2012</v>
       </c>
@@ -1755,9 +2241,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77"/>
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
       <c r="C77" t="n">
         <v>2013</v>
       </c>
@@ -1767,9 +2255,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78"/>
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
       <c r="C78" t="n">
         <v>2010</v>
       </c>
@@ -1779,9 +2269,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79"/>
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
       <c r="C79" t="n">
         <v>2011</v>
       </c>
@@ -1791,9 +2283,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80"/>
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
       <c r="C80" t="n">
         <v>2012</v>
       </c>
@@ -1803,9 +2297,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81"/>
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
       <c r="C81" t="n">
         <v>2013</v>
       </c>
@@ -1815,9 +2311,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82"/>
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
       <c r="C82" t="n">
         <v>2010</v>
       </c>
@@ -1827,9 +2325,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83"/>
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
       <c r="C83" t="n">
         <v>2011</v>
       </c>
@@ -1839,9 +2339,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84"/>
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
       <c r="C84" t="n">
         <v>2012</v>
       </c>
@@ -1851,9 +2353,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85"/>
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
       <c r="C85" t="n">
         <v>2013</v>
       </c>
@@ -1863,9 +2367,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86"/>
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
       <c r="C86" t="n">
         <v>2010</v>
       </c>
@@ -1875,9 +2381,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87"/>
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
       <c r="C87" t="n">
         <v>2011</v>
       </c>
@@ -1887,9 +2395,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88"/>
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
       <c r="C88" t="n">
         <v>2012</v>
       </c>
@@ -1899,9 +2409,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89"/>
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
       <c r="C89" t="n">
         <v>2013</v>
       </c>
@@ -1911,9 +2423,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90"/>
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
       <c r="C90" t="n">
         <v>2010</v>
       </c>
@@ -1923,9 +2437,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91"/>
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
       <c r="C91" t="n">
         <v>2011</v>
       </c>
@@ -1935,9 +2451,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92"/>
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
       <c r="C92" t="n">
         <v>2012</v>
       </c>
@@ -1947,9 +2465,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93"/>
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
       <c r="C93" t="n">
         <v>2013</v>
       </c>
@@ -1959,9 +2479,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94"/>
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
       <c r="C94" t="n">
         <v>2010</v>
       </c>
@@ -1971,9 +2493,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95"/>
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
       <c r="C95" t="n">
         <v>2011</v>
       </c>
@@ -1983,9 +2507,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96"/>
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
       <c r="C96" t="n">
         <v>2012</v>
       </c>
@@ -1995,9 +2521,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97"/>
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
       <c r="C97" t="n">
         <v>2013</v>
       </c>
@@ -2007,9 +2535,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98"/>
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
       <c r="C98" t="n">
         <v>2010</v>
       </c>
@@ -2019,9 +2549,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99"/>
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
       <c r="C99" t="n">
         <v>2011</v>
       </c>
@@ -2031,9 +2563,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100"/>
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
       <c r="C100" t="n">
         <v>2012</v>
       </c>
@@ -2043,9 +2577,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101"/>
+        <v>52</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
       <c r="C101" t="n">
         <v>2013</v>
       </c>
@@ -2055,9 +2591,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102"/>
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
       <c r="C102" t="n">
         <v>2010</v>
       </c>
@@ -2067,9 +2605,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103"/>
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
       <c r="C103" t="n">
         <v>2011</v>
       </c>
@@ -2079,9 +2619,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104"/>
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
       <c r="C104" t="n">
         <v>2012</v>
       </c>
@@ -2091,9 +2633,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105"/>
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
       <c r="C105" t="n">
         <v>2013</v>
       </c>
@@ -2103,9 +2647,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106"/>
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
       <c r="C106" t="n">
         <v>2010</v>
       </c>
@@ -2115,9 +2661,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>30</v>
-      </c>
-      <c r="B107"/>
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
       <c r="C107" t="n">
         <v>2011</v>
       </c>
@@ -2127,9 +2675,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108"/>
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
       <c r="C108" t="n">
         <v>2012</v>
       </c>
@@ -2139,9 +2689,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109"/>
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
       <c r="C109" t="n">
         <v>2013</v>
       </c>
@@ -2151,9 +2703,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110"/>
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
       <c r="C110" t="n">
         <v>2010</v>
       </c>
@@ -2163,9 +2717,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111"/>
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
       <c r="C111" t="n">
         <v>2011</v>
       </c>
@@ -2175,9 +2731,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B112"/>
+        <v>58</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
       <c r="C112" t="n">
         <v>2012</v>
       </c>
@@ -2187,9 +2745,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113"/>
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
       <c r="C113" t="n">
         <v>2013</v>
       </c>
@@ -2199,9 +2759,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114"/>
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
       <c r="C114" t="n">
         <v>2010</v>
       </c>
@@ -2211,9 +2773,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115"/>
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
       <c r="C115" t="n">
         <v>2011</v>
       </c>
@@ -2223,9 +2787,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116"/>
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
       <c r="C116" t="n">
         <v>2012</v>
       </c>
@@ -2235,9 +2801,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117"/>
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
       <c r="C117" t="n">
         <v>2013</v>
       </c>
@@ -2247,9 +2815,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118"/>
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
       <c r="C118" t="n">
         <v>2010</v>
       </c>
@@ -2259,9 +2829,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119"/>
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
       <c r="C119" t="n">
         <v>2011</v>
       </c>
@@ -2271,9 +2843,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120"/>
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
       <c r="C120" t="n">
         <v>2012</v>
       </c>
@@ -2283,9 +2857,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121"/>
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
       <c r="C121" t="n">
         <v>2013</v>
       </c>
@@ -2295,9 +2871,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122"/>
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
       <c r="C122" t="n">
         <v>2010</v>
       </c>
@@ -2307,9 +2885,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123"/>
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
       <c r="C123" t="n">
         <v>2011</v>
       </c>
@@ -2319,9 +2899,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124"/>
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
       <c r="C124" t="n">
         <v>2012</v>
       </c>
@@ -2331,9 +2913,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125"/>
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
       <c r="C125" t="n">
         <v>2013</v>
       </c>
@@ -2343,9 +2927,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B126"/>
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
       <c r="C126" t="n">
         <v>2010</v>
       </c>
@@ -2355,9 +2941,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127"/>
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
       <c r="C127" t="n">
         <v>2011</v>
       </c>
@@ -2367,9 +2955,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128"/>
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
       <c r="C128" t="n">
         <v>2012</v>
       </c>
@@ -2379,9 +2969,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>35</v>
-      </c>
-      <c r="B129"/>
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
       <c r="C129" t="n">
         <v>2013</v>
       </c>
@@ -2391,9 +2983,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130"/>
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
       <c r="C130" t="n">
         <v>2010</v>
       </c>
@@ -2403,9 +2997,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131"/>
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
       <c r="C131" t="n">
         <v>2011</v>
       </c>
@@ -2415,9 +3011,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132"/>
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
       <c r="C132" t="n">
         <v>2012</v>
       </c>
@@ -2427,9 +3025,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>36</v>
-      </c>
-      <c r="B133"/>
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
       <c r="C133" t="n">
         <v>2013</v>
       </c>
@@ -2439,9 +3039,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134"/>
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
       <c r="C134" t="n">
         <v>2010</v>
       </c>
@@ -2451,9 +3053,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135"/>
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
       <c r="C135" t="n">
         <v>2011</v>
       </c>
@@ -2463,9 +3067,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136"/>
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
       <c r="C136" t="n">
         <v>2012</v>
       </c>
@@ -2475,9 +3081,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137"/>
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
       <c r="C137" t="n">
         <v>2013</v>
       </c>
@@ -2487,9 +3095,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>38</v>
-      </c>
-      <c r="B138"/>
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
       <c r="C138" t="n">
         <v>2010</v>
       </c>
@@ -2499,9 +3109,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>38</v>
-      </c>
-      <c r="B139"/>
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
       <c r="C139" t="n">
         <v>2011</v>
       </c>
@@ -2511,9 +3123,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>38</v>
-      </c>
-      <c r="B140"/>
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
       <c r="C140" t="n">
         <v>2012</v>
       </c>
@@ -2523,9 +3137,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141"/>
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
       <c r="C141" t="n">
         <v>2013</v>
       </c>
@@ -2535,9 +3151,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>39</v>
-      </c>
-      <c r="B142"/>
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
       <c r="C142" t="n">
         <v>2010</v>
       </c>
@@ -2547,9 +3165,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143"/>
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
       <c r="C143" t="n">
         <v>2011</v>
       </c>
@@ -2559,9 +3179,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>39</v>
-      </c>
-      <c r="B144"/>
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
       <c r="C144" t="n">
         <v>2012</v>
       </c>
@@ -2571,9 +3193,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B145"/>
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
       <c r="C145" t="n">
         <v>2013</v>
       </c>
@@ -2583,9 +3207,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>40</v>
-      </c>
-      <c r="B146"/>
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
       <c r="C146" t="n">
         <v>2010</v>
       </c>
@@ -2595,9 +3221,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>40</v>
-      </c>
-      <c r="B147"/>
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
       <c r="C147" t="n">
         <v>2011</v>
       </c>
@@ -2607,9 +3235,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148"/>
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
       <c r="C148" t="n">
         <v>2012</v>
       </c>
@@ -2619,9 +3249,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149"/>
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
       <c r="C149" t="n">
         <v>2013</v>
       </c>
@@ -2631,9 +3263,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150"/>
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
       <c r="C150" t="n">
         <v>2010</v>
       </c>
@@ -2643,9 +3277,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>41</v>
-      </c>
-      <c r="B151"/>
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
       <c r="C151" t="n">
         <v>2011</v>
       </c>
@@ -2655,9 +3291,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>41</v>
-      </c>
-      <c r="B152"/>
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
       <c r="C152" t="n">
         <v>2012</v>
       </c>
@@ -2667,9 +3305,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>41</v>
-      </c>
-      <c r="B153"/>
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
       <c r="C153" t="n">
         <v>2013</v>
       </c>
@@ -2679,9 +3319,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>42</v>
-      </c>
-      <c r="B154"/>
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
       <c r="C154" t="n">
         <v>2010</v>
       </c>
@@ -2691,9 +3333,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>42</v>
-      </c>
-      <c r="B155"/>
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
       <c r="C155" t="n">
         <v>2011</v>
       </c>
@@ -2703,9 +3347,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>42</v>
-      </c>
-      <c r="B156"/>
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
       <c r="C156" t="n">
         <v>2012</v>
       </c>
@@ -2715,9 +3361,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>42</v>
-      </c>
-      <c r="B157"/>
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
       <c r="C157" t="n">
         <v>2013</v>
       </c>
@@ -2727,9 +3375,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>43</v>
-      </c>
-      <c r="B158"/>
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
       <c r="C158" t="n">
         <v>2010</v>
       </c>
@@ -2739,9 +3389,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>43</v>
-      </c>
-      <c r="B159"/>
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
       <c r="C159" t="n">
         <v>2011</v>
       </c>
@@ -2751,9 +3403,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>43</v>
-      </c>
-      <c r="B160"/>
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
       <c r="C160" t="n">
         <v>2012</v>
       </c>
@@ -2763,9 +3417,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161"/>
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
       <c r="C161" t="n">
         <v>2013</v>
       </c>
@@ -2775,9 +3431,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>44</v>
-      </c>
-      <c r="B162"/>
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
       <c r="C162" t="n">
         <v>2010</v>
       </c>
@@ -2787,9 +3445,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>44</v>
-      </c>
-      <c r="B163"/>
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
       <c r="C163" t="n">
         <v>2011</v>
       </c>
@@ -2799,9 +3459,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>44</v>
-      </c>
-      <c r="B164"/>
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
       <c r="C164" t="n">
         <v>2012</v>
       </c>
@@ -2811,9 +3473,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>44</v>
-      </c>
-      <c r="B165"/>
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
       <c r="C165" t="n">
         <v>2013</v>
       </c>
@@ -2823,9 +3487,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>45</v>
-      </c>
-      <c r="B166"/>
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
       <c r="C166" t="n">
         <v>2010</v>
       </c>
@@ -2835,9 +3501,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>45</v>
-      </c>
-      <c r="B167"/>
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
       <c r="C167" t="n">
         <v>2011</v>
       </c>
@@ -2847,9 +3515,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168"/>
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
       <c r="C168" t="n">
         <v>2012</v>
       </c>
@@ -2859,9 +3529,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169"/>
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
       <c r="C169" t="n">
         <v>2013</v>
       </c>
@@ -2871,9 +3543,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>46</v>
-      </c>
-      <c r="B170"/>
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
       <c r="C170" t="n">
         <v>2010</v>
       </c>
@@ -2883,9 +3557,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>46</v>
-      </c>
-      <c r="B171"/>
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
       <c r="C171" t="n">
         <v>2011</v>
       </c>
@@ -2895,9 +3571,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172"/>
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
       <c r="C172" t="n">
         <v>2012</v>
       </c>
@@ -2907,9 +3585,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>46</v>
-      </c>
-      <c r="B173"/>
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
       <c r="C173" t="n">
         <v>2013</v>
       </c>
@@ -2919,9 +3599,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>47</v>
-      </c>
-      <c r="B174"/>
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
       <c r="C174" t="n">
         <v>2010</v>
       </c>
@@ -2931,9 +3613,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175"/>
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
       <c r="C175" t="n">
         <v>2011</v>
       </c>
@@ -2943,9 +3627,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>47</v>
-      </c>
-      <c r="B176"/>
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
       <c r="C176" t="n">
         <v>2012</v>
       </c>
@@ -2955,9 +3641,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>47</v>
-      </c>
-      <c r="B177"/>
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
       <c r="C177" t="n">
         <v>2013</v>
       </c>
@@ -2967,9 +3655,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>48</v>
-      </c>
-      <c r="B178"/>
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
       <c r="C178" t="n">
         <v>2010</v>
       </c>
@@ -2979,9 +3669,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>48</v>
-      </c>
-      <c r="B179"/>
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
       <c r="C179" t="n">
         <v>2011</v>
       </c>
@@ -2991,9 +3683,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>48</v>
-      </c>
-      <c r="B180"/>
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
       <c r="C180" t="n">
         <v>2012</v>
       </c>
@@ -3003,9 +3697,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>48</v>
-      </c>
-      <c r="B181"/>
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
       <c r="C181" t="n">
         <v>2013</v>
       </c>
@@ -3015,9 +3711,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>49</v>
-      </c>
-      <c r="B182"/>
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
       <c r="C182" t="n">
         <v>2010</v>
       </c>
@@ -3027,9 +3725,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>49</v>
-      </c>
-      <c r="B183"/>
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
       <c r="C183" t="n">
         <v>2011</v>
       </c>
@@ -3039,9 +3739,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>49</v>
-      </c>
-      <c r="B184"/>
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
       <c r="C184" t="n">
         <v>2012</v>
       </c>
@@ -3051,9 +3753,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>49</v>
-      </c>
-      <c r="B185"/>
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
       <c r="C185" t="n">
         <v>2013</v>
       </c>
@@ -3063,9 +3767,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>50</v>
-      </c>
-      <c r="B186"/>
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
       <c r="C186" t="n">
         <v>2010</v>
       </c>
@@ -3075,9 +3781,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>50</v>
-      </c>
-      <c r="B187"/>
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
       <c r="C187" t="n">
         <v>2011</v>
       </c>
@@ -3087,9 +3795,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>50</v>
-      </c>
-      <c r="B188"/>
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
       <c r="C188" t="n">
         <v>2012</v>
       </c>
@@ -3099,9 +3809,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>50</v>
-      </c>
-      <c r="B189"/>
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
       <c r="C189" t="n">
         <v>2013</v>
       </c>
@@ -3111,9 +3823,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>51</v>
-      </c>
-      <c r="B190"/>
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
       <c r="C190" t="n">
         <v>2010</v>
       </c>
@@ -3123,9 +3837,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>51</v>
-      </c>
-      <c r="B191"/>
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
       <c r="C191" t="n">
         <v>2011</v>
       </c>
@@ -3135,9 +3851,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>51</v>
-      </c>
-      <c r="B192"/>
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
       <c r="C192" t="n">
         <v>2012</v>
       </c>
@@ -3147,9 +3865,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>51</v>
-      </c>
-      <c r="B193"/>
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
       <c r="C193" t="n">
         <v>2013</v>
       </c>
@@ -3159,9 +3879,11 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194"/>
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
       <c r="C194" t="n">
         <v>2010</v>
       </c>
@@ -3171,9 +3893,11 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>52</v>
-      </c>
-      <c r="B195"/>
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
       <c r="C195" t="n">
         <v>2011</v>
       </c>
@@ -3183,9 +3907,11 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>52</v>
-      </c>
-      <c r="B196"/>
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
       <c r="C196" t="n">
         <v>2012</v>
       </c>
@@ -3195,9 +3921,11 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>52</v>
-      </c>
-      <c r="B197"/>
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
       <c r="C197" t="n">
         <v>2013</v>
       </c>
@@ -3207,9 +3935,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>53</v>
-      </c>
-      <c r="B198"/>
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
       <c r="C198" t="n">
         <v>2010</v>
       </c>
@@ -3219,9 +3949,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>53</v>
-      </c>
-      <c r="B199"/>
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
       <c r="C199" t="n">
         <v>2011</v>
       </c>
@@ -3231,9 +3963,11 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>53</v>
-      </c>
-      <c r="B200"/>
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
       <c r="C200" t="n">
         <v>2012</v>
       </c>
@@ -3243,9 +3977,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>53</v>
-      </c>
-      <c r="B201"/>
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
       <c r="C201" t="n">
         <v>2013</v>
       </c>
@@ -3255,9 +3991,11 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>54</v>
-      </c>
-      <c r="B202"/>
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
       <c r="C202" t="n">
         <v>2010</v>
       </c>
@@ -3267,9 +4005,11 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>54</v>
-      </c>
-      <c r="B203"/>
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
       <c r="C203" t="n">
         <v>2011</v>
       </c>
@@ -3279,9 +4019,11 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>54</v>
-      </c>
-      <c r="B204"/>
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
       <c r="C204" t="n">
         <v>2012</v>
       </c>
@@ -3291,9 +4033,11 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>54</v>
-      </c>
-      <c r="B205"/>
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
       <c r="C205" t="n">
         <v>2013</v>
       </c>
@@ -3303,9 +4047,11 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>55</v>
-      </c>
-      <c r="B206"/>
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
       <c r="C206" t="n">
         <v>2010</v>
       </c>
@@ -3315,9 +4061,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>55</v>
-      </c>
-      <c r="B207"/>
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
       <c r="C207" t="n">
         <v>2011</v>
       </c>
@@ -3327,9 +4075,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>55</v>
-      </c>
-      <c r="B208"/>
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
       <c r="C208" t="n">
         <v>2012</v>
       </c>
@@ -3339,9 +4089,11 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>55</v>
-      </c>
-      <c r="B209"/>
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
       <c r="C209" t="n">
         <v>2013</v>
       </c>
@@ -3351,9 +4103,11 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>56</v>
-      </c>
-      <c r="B210"/>
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
       <c r="C210" t="n">
         <v>2010</v>
       </c>
@@ -3363,9 +4117,11 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>56</v>
-      </c>
-      <c r="B211"/>
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
       <c r="C211" t="n">
         <v>2011</v>
       </c>
@@ -3375,9 +4131,11 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>56</v>
-      </c>
-      <c r="B212"/>
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
       <c r="C212" t="n">
         <v>2012</v>
       </c>
@@ -3387,9 +4145,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B213"/>
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
       <c r="C213" t="n">
         <v>2013</v>
       </c>
@@ -3399,9 +4159,11 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>57</v>
-      </c>
-      <c r="B214"/>
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
       <c r="C214" t="n">
         <v>2010</v>
       </c>
@@ -3411,9 +4173,11 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>57</v>
-      </c>
-      <c r="B215"/>
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
       <c r="C215" t="n">
         <v>2011</v>
       </c>
@@ -3423,9 +4187,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>57</v>
-      </c>
-      <c r="B216"/>
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
       <c r="C216" t="n">
         <v>2012</v>
       </c>
@@ -3435,9 +4201,11 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>57</v>
-      </c>
-      <c r="B217"/>
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
       <c r="C217" t="n">
         <v>2013</v>
       </c>
@@ -3447,9 +4215,11 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>58</v>
-      </c>
-      <c r="B218"/>
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
       <c r="C218" t="n">
         <v>2010</v>
       </c>
@@ -3459,9 +4229,11 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>58</v>
-      </c>
-      <c r="B219"/>
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
       <c r="C219" t="n">
         <v>2011</v>
       </c>
@@ -3471,9 +4243,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>58</v>
-      </c>
-      <c r="B220"/>
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
       <c r="C220" t="n">
         <v>2012</v>
       </c>
@@ -3483,9 +4257,11 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>58</v>
-      </c>
-      <c r="B221"/>
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
       <c r="C221" t="n">
         <v>2013</v>
       </c>
@@ -3495,9 +4271,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>59</v>
-      </c>
-      <c r="B222"/>
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
       <c r="C222" t="n">
         <v>2010</v>
       </c>
@@ -3507,9 +4285,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>59</v>
-      </c>
-      <c r="B223"/>
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
       <c r="C223" t="n">
         <v>2011</v>
       </c>
@@ -3519,9 +4299,11 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>59</v>
-      </c>
-      <c r="B224"/>
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
       <c r="C224" t="n">
         <v>2012</v>
       </c>
@@ -3531,9 +4313,11 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>59</v>
-      </c>
-      <c r="B225"/>
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
       <c r="C225" t="n">
         <v>2013</v>
       </c>
@@ -3543,9 +4327,11 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>60</v>
-      </c>
-      <c r="B226"/>
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
       <c r="C226" t="n">
         <v>2010</v>
       </c>
@@ -3555,9 +4341,11 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>60</v>
-      </c>
-      <c r="B227"/>
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
       <c r="C227" t="n">
         <v>2011</v>
       </c>
@@ -3567,9 +4355,11 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>60</v>
-      </c>
-      <c r="B228"/>
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
       <c r="C228" t="n">
         <v>2012</v>
       </c>
@@ -3579,9 +4369,11 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>60</v>
-      </c>
-      <c r="B229"/>
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
       <c r="C229" t="n">
         <v>2013</v>
       </c>
@@ -3591,9 +4383,11 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>61</v>
-      </c>
-      <c r="B230"/>
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
       <c r="C230" t="n">
         <v>2010</v>
       </c>
@@ -3603,9 +4397,11 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>61</v>
-      </c>
-      <c r="B231"/>
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
       <c r="C231" t="n">
         <v>2011</v>
       </c>
@@ -3615,9 +4411,11 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>61</v>
-      </c>
-      <c r="B232"/>
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
       <c r="C232" t="n">
         <v>2012</v>
       </c>
@@ -3627,9 +4425,11 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>61</v>
-      </c>
-      <c r="B233"/>
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
       <c r="C233" t="n">
         <v>2013</v>
       </c>
@@ -3639,9 +4439,11 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>62</v>
-      </c>
-      <c r="B234"/>
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
       <c r="C234" t="n">
         <v>2010</v>
       </c>
@@ -3651,9 +4453,11 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>62</v>
-      </c>
-      <c r="B235"/>
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
       <c r="C235" t="n">
         <v>2011</v>
       </c>
@@ -3663,9 +4467,11 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>62</v>
-      </c>
-      <c r="B236"/>
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
       <c r="C236" t="n">
         <v>2012</v>
       </c>
@@ -3675,9 +4481,11 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>62</v>
-      </c>
-      <c r="B237"/>
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
       <c r="C237" t="n">
         <v>2013</v>
       </c>
@@ -3687,9 +4495,11 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>63</v>
-      </c>
-      <c r="B238"/>
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
       <c r="C238" t="n">
         <v>2010</v>
       </c>
@@ -3699,9 +4509,11 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>63</v>
-      </c>
-      <c r="B239"/>
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
       <c r="C239" t="n">
         <v>2011</v>
       </c>
@@ -3711,9 +4523,11 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>63</v>
-      </c>
-      <c r="B240"/>
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
       <c r="C240" t="n">
         <v>2012</v>
       </c>
@@ -3723,9 +4537,11 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>63</v>
-      </c>
-      <c r="B241"/>
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
       <c r="C241" t="n">
         <v>2013</v>
       </c>
@@ -3735,9 +4551,11 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>64</v>
-      </c>
-      <c r="B242"/>
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
       <c r="C242" t="n">
         <v>2010</v>
       </c>
@@ -3747,9 +4565,11 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>64</v>
-      </c>
-      <c r="B243"/>
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
       <c r="C243" t="n">
         <v>2011</v>
       </c>
@@ -3759,9 +4579,11 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>64</v>
-      </c>
-      <c r="B244"/>
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
       <c r="C244" t="n">
         <v>2012</v>
       </c>
@@ -3771,9 +4593,11 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>64</v>
-      </c>
-      <c r="B245"/>
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
       <c r="C245" t="n">
         <v>2013</v>
       </c>
@@ -3783,9 +4607,11 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>65</v>
-      </c>
-      <c r="B246"/>
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
       <c r="C246" t="n">
         <v>2010</v>
       </c>
@@ -3795,9 +4621,11 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>65</v>
-      </c>
-      <c r="B247"/>
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
       <c r="C247" t="n">
         <v>2011</v>
       </c>
@@ -3807,9 +4635,11 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>65</v>
-      </c>
-      <c r="B248"/>
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
       <c r="C248" t="n">
         <v>2012</v>
       </c>
@@ -3819,9 +4649,11 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>65</v>
-      </c>
-      <c r="B249"/>
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
       <c r="C249" t="n">
         <v>2013</v>
       </c>
@@ -3831,9 +4663,11 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>66</v>
-      </c>
-      <c r="B250"/>
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
       <c r="C250" t="n">
         <v>2010</v>
       </c>
@@ -3843,9 +4677,11 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>66</v>
-      </c>
-      <c r="B251"/>
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
       <c r="C251" t="n">
         <v>2011</v>
       </c>
@@ -3855,9 +4691,11 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>66</v>
-      </c>
-      <c r="B252"/>
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
       <c r="C252" t="n">
         <v>2012</v>
       </c>
@@ -3867,9 +4705,11 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>66</v>
-      </c>
-      <c r="B253"/>
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
       <c r="C253" t="n">
         <v>2013</v>
       </c>
@@ -3879,9 +4719,11 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>67</v>
-      </c>
-      <c r="B254"/>
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
       <c r="C254" t="n">
         <v>2010</v>
       </c>
@@ -3891,9 +4733,11 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>67</v>
-      </c>
-      <c r="B255"/>
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
       <c r="C255" t="n">
         <v>2011</v>
       </c>
@@ -3903,9 +4747,11 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>67</v>
-      </c>
-      <c r="B256"/>
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
       <c r="C256" t="n">
         <v>2012</v>
       </c>
@@ -3915,9 +4761,11 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>67</v>
-      </c>
-      <c r="B257"/>
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
       <c r="C257" t="n">
         <v>2013</v>
       </c>
@@ -3927,9 +4775,11 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>68</v>
-      </c>
-      <c r="B258"/>
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
       <c r="C258" t="n">
         <v>2010</v>
       </c>
@@ -3939,9 +4789,11 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>68</v>
-      </c>
-      <c r="B259"/>
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
       <c r="C259" t="n">
         <v>2011</v>
       </c>
@@ -3951,9 +4803,11 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>68</v>
-      </c>
-      <c r="B260"/>
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
       <c r="C260" t="n">
         <v>2012</v>
       </c>
@@ -3963,9 +4817,11 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>68</v>
-      </c>
-      <c r="B261"/>
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
       <c r="C261" t="n">
         <v>2013</v>
       </c>
@@ -3975,9 +4831,11 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>69</v>
-      </c>
-      <c r="B262"/>
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
       <c r="C262" t="n">
         <v>2010</v>
       </c>
@@ -3987,9 +4845,11 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>69</v>
-      </c>
-      <c r="B263"/>
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
       <c r="C263" t="n">
         <v>2011</v>
       </c>
@@ -3999,9 +4859,11 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>69</v>
-      </c>
-      <c r="B264"/>
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
       <c r="C264" t="n">
         <v>2012</v>
       </c>
@@ -4011,9 +4873,11 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>69</v>
-      </c>
-      <c r="B265"/>
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
       <c r="C265" t="n">
         <v>2013</v>
       </c>
@@ -4023,9 +4887,11 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>70</v>
-      </c>
-      <c r="B266"/>
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
       <c r="C266" t="n">
         <v>2010</v>
       </c>
@@ -4035,9 +4901,11 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>70</v>
-      </c>
-      <c r="B267"/>
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
       <c r="C267" t="n">
         <v>2011</v>
       </c>
@@ -4047,9 +4915,11 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>70</v>
-      </c>
-      <c r="B268"/>
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
       <c r="C268" t="n">
         <v>2012</v>
       </c>
@@ -4059,9 +4929,11 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>70</v>
-      </c>
-      <c r="B269"/>
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
       <c r="C269" t="n">
         <v>2013</v>
       </c>
@@ -4071,9 +4943,11 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>71</v>
-      </c>
-      <c r="B270"/>
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
       <c r="C270" t="n">
         <v>2010</v>
       </c>
@@ -4083,9 +4957,11 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>71</v>
-      </c>
-      <c r="B271"/>
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
       <c r="C271" t="n">
         <v>2011</v>
       </c>
@@ -4095,9 +4971,11 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>71</v>
-      </c>
-      <c r="B272"/>
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
       <c r="C272" t="n">
         <v>2012</v>
       </c>
@@ -4107,9 +4985,11 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>71</v>
-      </c>
-      <c r="B273"/>
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
       <c r="C273" t="n">
         <v>2013</v>
       </c>
@@ -4119,9 +4999,11 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>72</v>
-      </c>
-      <c r="B274"/>
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
       <c r="C274" t="n">
         <v>2010</v>
       </c>
@@ -4131,9 +5013,11 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>72</v>
-      </c>
-      <c r="B275"/>
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
       <c r="C275" t="n">
         <v>2011</v>
       </c>
@@ -4143,9 +5027,11 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>72</v>
-      </c>
-      <c r="B276"/>
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
       <c r="C276" t="n">
         <v>2012</v>
       </c>
@@ -4155,9 +5041,11 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>72</v>
-      </c>
-      <c r="B277"/>
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
       <c r="C277" t="n">
         <v>2013</v>
       </c>
@@ -4167,9 +5055,11 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>73</v>
-      </c>
-      <c r="B278"/>
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
       <c r="C278" t="n">
         <v>2010</v>
       </c>
@@ -4179,9 +5069,11 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>73</v>
-      </c>
-      <c r="B279"/>
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
       <c r="C279" t="n">
         <v>2011</v>
       </c>
@@ -4191,9 +5083,11 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>73</v>
-      </c>
-      <c r="B280"/>
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
       <c r="C280" t="n">
         <v>2012</v>
       </c>
@@ -4203,9 +5097,11 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>73</v>
-      </c>
-      <c r="B281"/>
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
       <c r="C281" t="n">
         <v>2013</v>
       </c>
@@ -4215,9 +5111,11 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>74</v>
-      </c>
-      <c r="B282"/>
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
       <c r="C282" t="n">
         <v>2010</v>
       </c>
@@ -4227,9 +5125,11 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>74</v>
-      </c>
-      <c r="B283"/>
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
       <c r="C283" t="n">
         <v>2011</v>
       </c>
@@ -4239,9 +5139,11 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>74</v>
-      </c>
-      <c r="B284"/>
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
       <c r="C284" t="n">
         <v>2012</v>
       </c>
@@ -4251,9 +5153,11 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>74</v>
-      </c>
-      <c r="B285"/>
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
       <c r="C285" t="n">
         <v>2013</v>
       </c>
@@ -4263,9 +5167,11 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>75</v>
-      </c>
-      <c r="B286"/>
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
       <c r="C286" t="n">
         <v>2010</v>
       </c>
@@ -4275,9 +5181,11 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>75</v>
-      </c>
-      <c r="B287"/>
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
       <c r="C287" t="n">
         <v>2011</v>
       </c>
@@ -4287,9 +5195,11 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>75</v>
-      </c>
-      <c r="B288"/>
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
       <c r="C288" t="n">
         <v>2012</v>
       </c>
@@ -4299,9 +5209,11 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>75</v>
-      </c>
-      <c r="B289"/>
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
       <c r="C289" t="n">
         <v>2013</v>
       </c>
@@ -4311,9 +5223,11 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>76</v>
-      </c>
-      <c r="B290"/>
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
       <c r="C290" t="n">
         <v>2010</v>
       </c>
@@ -4323,9 +5237,11 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>76</v>
-      </c>
-      <c r="B291"/>
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
       <c r="C291" t="n">
         <v>2011</v>
       </c>
@@ -4335,9 +5251,11 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>76</v>
-      </c>
-      <c r="B292"/>
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
       <c r="C292" t="n">
         <v>2012</v>
       </c>
@@ -4347,9 +5265,11 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>76</v>
-      </c>
-      <c r="B293"/>
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
       <c r="C293" t="n">
         <v>2013</v>
       </c>
@@ -4359,9 +5279,11 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>77</v>
-      </c>
-      <c r="B294"/>
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
       <c r="C294" t="n">
         <v>2010</v>
       </c>
@@ -4371,9 +5293,11 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>77</v>
-      </c>
-      <c r="B295"/>
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
       <c r="C295" t="n">
         <v>2011</v>
       </c>
@@ -4383,9 +5307,11 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>77</v>
-      </c>
-      <c r="B296"/>
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
       <c r="C296" t="n">
         <v>2012</v>
       </c>
@@ -4395,9 +5321,11 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>77</v>
-      </c>
-      <c r="B297"/>
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
       <c r="C297" t="n">
         <v>2013</v>
       </c>
@@ -4407,9 +5335,11 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>78</v>
-      </c>
-      <c r="B298"/>
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
       <c r="C298" t="n">
         <v>2010</v>
       </c>
@@ -4419,9 +5349,11 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>78</v>
-      </c>
-      <c r="B299"/>
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
       <c r="C299" t="n">
         <v>2011</v>
       </c>
@@ -4431,9 +5363,11 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>78</v>
-      </c>
-      <c r="B300"/>
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
       <c r="C300" t="n">
         <v>2012</v>
       </c>
@@ -4443,9 +5377,11 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>78</v>
-      </c>
-      <c r="B301"/>
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
       <c r="C301" t="n">
         <v>2013</v>
       </c>
@@ -4455,9 +5391,11 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>79</v>
-      </c>
-      <c r="B302"/>
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
       <c r="C302" t="n">
         <v>2010</v>
       </c>
@@ -4467,9 +5405,11 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>79</v>
-      </c>
-      <c r="B303"/>
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
       <c r="C303" t="n">
         <v>2011</v>
       </c>
@@ -4479,9 +5419,11 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>79</v>
-      </c>
-      <c r="B304"/>
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
       <c r="C304" t="n">
         <v>2012</v>
       </c>
@@ -4491,9 +5433,11 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>79</v>
-      </c>
-      <c r="B305"/>
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
       <c r="C305" t="n">
         <v>2013</v>
       </c>
@@ -4503,9 +5447,11 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>80</v>
-      </c>
-      <c r="B306"/>
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
       <c r="C306" t="n">
         <v>2010</v>
       </c>
@@ -4515,9 +5461,11 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>80</v>
-      </c>
-      <c r="B307"/>
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
       <c r="C307" t="n">
         <v>2011</v>
       </c>
@@ -4527,9 +5475,11 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>80</v>
-      </c>
-      <c r="B308"/>
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
       <c r="C308" t="n">
         <v>2012</v>
       </c>
@@ -4539,9 +5489,11 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>80</v>
-      </c>
-      <c r="B309"/>
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
       <c r="C309" t="n">
         <v>2013</v>
       </c>
@@ -4551,9 +5503,11 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>81</v>
-      </c>
-      <c r="B310"/>
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
       <c r="C310" t="n">
         <v>2010</v>
       </c>
@@ -4563,9 +5517,11 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>81</v>
-      </c>
-      <c r="B311"/>
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
       <c r="C311" t="n">
         <v>2011</v>
       </c>
@@ -4575,9 +5531,11 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>81</v>
-      </c>
-      <c r="B312"/>
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
       <c r="C312" t="n">
         <v>2012</v>
       </c>
@@ -4587,9 +5545,11 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>81</v>
-      </c>
-      <c r="B313"/>
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
       <c r="C313" t="n">
         <v>2013</v>
       </c>
@@ -4599,9 +5559,11 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>82</v>
-      </c>
-      <c r="B314"/>
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
       <c r="C314" t="n">
         <v>2010</v>
       </c>
@@ -4611,9 +5573,11 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>82</v>
-      </c>
-      <c r="B315"/>
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
       <c r="C315" t="n">
         <v>2011</v>
       </c>
@@ -4623,9 +5587,11 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>82</v>
-      </c>
-      <c r="B316"/>
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
       <c r="C316" t="n">
         <v>2012</v>
       </c>
@@ -4635,9 +5601,11 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>82</v>
-      </c>
-      <c r="B317"/>
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
       <c r="C317" t="n">
         <v>2013</v>
       </c>
@@ -4647,9 +5615,11 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>83</v>
-      </c>
-      <c r="B318"/>
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
       <c r="C318" t="n">
         <v>2010</v>
       </c>
@@ -4659,9 +5629,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>83</v>
-      </c>
-      <c r="B319"/>
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
       <c r="C319" t="n">
         <v>2011</v>
       </c>
@@ -4671,9 +5643,11 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>83</v>
-      </c>
-      <c r="B320"/>
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
       <c r="C320" t="n">
         <v>2012</v>
       </c>
@@ -4683,9 +5657,11 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>83</v>
-      </c>
-      <c r="B321"/>
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
       <c r="C321" t="n">
         <v>2013</v>
       </c>
@@ -4695,9 +5671,11 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>84</v>
-      </c>
-      <c r="B322"/>
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
       <c r="C322" t="n">
         <v>2010</v>
       </c>
@@ -4707,9 +5685,11 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>84</v>
-      </c>
-      <c r="B323"/>
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
       <c r="C323" t="n">
         <v>2011</v>
       </c>
@@ -4719,9 +5699,11 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>84</v>
-      </c>
-      <c r="B324"/>
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
       <c r="C324" t="n">
         <v>2012</v>
       </c>
@@ -4731,9 +5713,11 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>84</v>
-      </c>
-      <c r="B325"/>
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
       <c r="C325" t="n">
         <v>2013</v>
       </c>
@@ -4743,9 +5727,11 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>85</v>
-      </c>
-      <c r="B326"/>
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
       <c r="C326" t="n">
         <v>2010</v>
       </c>
@@ -4755,9 +5741,11 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>85</v>
-      </c>
-      <c r="B327"/>
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
       <c r="C327" t="n">
         <v>2011</v>
       </c>
@@ -4767,9 +5755,11 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>85</v>
-      </c>
-      <c r="B328"/>
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
       <c r="C328" t="n">
         <v>2012</v>
       </c>
@@ -4779,9 +5769,11 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>85</v>
-      </c>
-      <c r="B329"/>
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
       <c r="C329" t="n">
         <v>2013</v>
       </c>
@@ -4791,9 +5783,11 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>86</v>
-      </c>
-      <c r="B330"/>
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
       <c r="C330" t="n">
         <v>2010</v>
       </c>
@@ -4803,9 +5797,11 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>86</v>
-      </c>
-      <c r="B331"/>
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
       <c r="C331" t="n">
         <v>2011</v>
       </c>
@@ -4815,9 +5811,11 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>86</v>
-      </c>
-      <c r="B332"/>
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
       <c r="C332" t="n">
         <v>2012</v>
       </c>
@@ -4827,9 +5825,11 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>86</v>
-      </c>
-      <c r="B333"/>
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
       <c r="C333" t="n">
         <v>2013</v>
       </c>
@@ -4839,9 +5839,11 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>87</v>
-      </c>
-      <c r="B334"/>
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
       <c r="C334" t="n">
         <v>2010</v>
       </c>
@@ -4851,9 +5853,11 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>87</v>
-      </c>
-      <c r="B335"/>
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
       <c r="C335" t="n">
         <v>2011</v>
       </c>
@@ -4863,9 +5867,11 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>87</v>
-      </c>
-      <c r="B336"/>
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
       <c r="C336" t="n">
         <v>2012</v>
       </c>
@@ -4875,9 +5881,11 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>87</v>
-      </c>
-      <c r="B337"/>
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
       <c r="C337" t="n">
         <v>2013</v>
       </c>
@@ -4887,9 +5895,11 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>88</v>
-      </c>
-      <c r="B338"/>
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
       <c r="C338" t="n">
         <v>2010</v>
       </c>
@@ -4899,9 +5909,11 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>88</v>
-      </c>
-      <c r="B339"/>
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
       <c r="C339" t="n">
         <v>2011</v>
       </c>
@@ -4911,9 +5923,11 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>88</v>
-      </c>
-      <c r="B340"/>
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
       <c r="C340" t="n">
         <v>2012</v>
       </c>
@@ -4923,9 +5937,11 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>88</v>
-      </c>
-      <c r="B341"/>
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
       <c r="C341" t="n">
         <v>2013</v>
       </c>
@@ -4935,9 +5951,11 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>89</v>
-      </c>
-      <c r="B342"/>
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
       <c r="C342" t="n">
         <v>2010</v>
       </c>
@@ -4947,9 +5965,11 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>89</v>
-      </c>
-      <c r="B343"/>
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
       <c r="C343" t="n">
         <v>2011</v>
       </c>
@@ -4959,9 +5979,11 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>89</v>
-      </c>
-      <c r="B344"/>
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
       <c r="C344" t="n">
         <v>2012</v>
       </c>
@@ -4971,9 +5993,11 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>89</v>
-      </c>
-      <c r="B345"/>
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
       <c r="C345" t="n">
         <v>2013</v>
       </c>
@@ -4983,9 +6007,11 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>90</v>
-      </c>
-      <c r="B346"/>
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
       <c r="C346" t="n">
         <v>2010</v>
       </c>
@@ -4995,9 +6021,11 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>90</v>
-      </c>
-      <c r="B347"/>
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
       <c r="C347" t="n">
         <v>2011</v>
       </c>
@@ -5007,9 +6035,11 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>90</v>
-      </c>
-      <c r="B348"/>
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
       <c r="C348" t="n">
         <v>2012</v>
       </c>
@@ -5019,9 +6049,11 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>90</v>
-      </c>
-      <c r="B349"/>
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
       <c r="C349" t="n">
         <v>2013</v>
       </c>
@@ -5031,9 +6063,11 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>91</v>
-      </c>
-      <c r="B350"/>
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
       <c r="C350" t="n">
         <v>2010</v>
       </c>
@@ -5043,9 +6077,11 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>91</v>
-      </c>
-      <c r="B351"/>
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
       <c r="C351" t="n">
         <v>2011</v>
       </c>
@@ -5055,9 +6091,11 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>91</v>
-      </c>
-      <c r="B352"/>
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
       <c r="C352" t="n">
         <v>2012</v>
       </c>
@@ -5067,9 +6105,11 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>91</v>
-      </c>
-      <c r="B353"/>
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
       <c r="C353" t="n">
         <v>2013</v>
       </c>
@@ -5079,9 +6119,11 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>92</v>
-      </c>
-      <c r="B354"/>
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
       <c r="C354" t="n">
         <v>2010</v>
       </c>
@@ -5091,9 +6133,11 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>92</v>
-      </c>
-      <c r="B355"/>
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
       <c r="C355" t="n">
         <v>2011</v>
       </c>
@@ -5103,9 +6147,11 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>92</v>
-      </c>
-      <c r="B356"/>
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
       <c r="C356" t="n">
         <v>2012</v>
       </c>
@@ -5115,9 +6161,11 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>92</v>
-      </c>
-      <c r="B357"/>
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
       <c r="C357" t="n">
         <v>2013</v>
       </c>
@@ -5127,9 +6175,11 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>93</v>
-      </c>
-      <c r="B358"/>
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
       <c r="C358" t="n">
         <v>2010</v>
       </c>
@@ -5139,9 +6189,11 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>93</v>
-      </c>
-      <c r="B359"/>
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
       <c r="C359" t="n">
         <v>2011</v>
       </c>
@@ -5151,9 +6203,11 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>93</v>
-      </c>
-      <c r="B360"/>
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
       <c r="C360" t="n">
         <v>2012</v>
       </c>
@@ -5163,9 +6217,11 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>93</v>
-      </c>
-      <c r="B361"/>
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
       <c r="C361" t="n">
         <v>2013</v>
       </c>
@@ -5175,9 +6231,11 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>94</v>
-      </c>
-      <c r="B362"/>
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
       <c r="C362" t="n">
         <v>2010</v>
       </c>
@@ -5187,9 +6245,11 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>94</v>
-      </c>
-      <c r="B363"/>
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
       <c r="C363" t="n">
         <v>2011</v>
       </c>
@@ -5199,9 +6259,11 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>94</v>
-      </c>
-      <c r="B364"/>
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
       <c r="C364" t="n">
         <v>2012</v>
       </c>
@@ -5211,9 +6273,11 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>94</v>
-      </c>
-      <c r="B365"/>
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
       <c r="C365" t="n">
         <v>2013</v>
       </c>
@@ -5223,9 +6287,11 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>95</v>
-      </c>
-      <c r="B366"/>
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
       <c r="C366" t="n">
         <v>2010</v>
       </c>
@@ -5235,9 +6301,11 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>95</v>
-      </c>
-      <c r="B367"/>
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
       <c r="C367" t="n">
         <v>2011</v>
       </c>
@@ -5247,9 +6315,11 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>95</v>
-      </c>
-      <c r="B368"/>
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
       <c r="C368" t="n">
         <v>2012</v>
       </c>
@@ -5259,9 +6329,11 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>95</v>
-      </c>
-      <c r="B369"/>
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
       <c r="C369" t="n">
         <v>2013</v>
       </c>
@@ -5271,9 +6343,11 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>96</v>
-      </c>
-      <c r="B370"/>
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
       <c r="C370" t="n">
         <v>2010</v>
       </c>
@@ -5283,9 +6357,11 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>96</v>
-      </c>
-      <c r="B371"/>
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
       <c r="C371" t="n">
         <v>2011</v>
       </c>
@@ -5295,9 +6371,11 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>96</v>
-      </c>
-      <c r="B372"/>
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
       <c r="C372" t="n">
         <v>2012</v>
       </c>
@@ -5307,9 +6385,11 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>96</v>
-      </c>
-      <c r="B373"/>
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
       <c r="C373" t="n">
         <v>2013</v>
       </c>
@@ -5319,9 +6399,11 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>97</v>
-      </c>
-      <c r="B374"/>
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
       <c r="C374" t="n">
         <v>2010</v>
       </c>
@@ -5331,9 +6413,11 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>97</v>
-      </c>
-      <c r="B375"/>
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
       <c r="C375" t="n">
         <v>2011</v>
       </c>
@@ -5343,9 +6427,11 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>97</v>
-      </c>
-      <c r="B376"/>
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
       <c r="C376" t="n">
         <v>2012</v>
       </c>
@@ -5355,9 +6441,11 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>97</v>
-      </c>
-      <c r="B377"/>
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
       <c r="C377" t="n">
         <v>2013</v>
       </c>
@@ -5367,9 +6455,11 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>98</v>
-      </c>
-      <c r="B378"/>
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
       <c r="C378" t="n">
         <v>2010</v>
       </c>
@@ -5379,9 +6469,11 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>98</v>
-      </c>
-      <c r="B379"/>
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
       <c r="C379" t="n">
         <v>2011</v>
       </c>
@@ -5391,9 +6483,11 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>98</v>
-      </c>
-      <c r="B380"/>
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
       <c r="C380" t="n">
         <v>2012</v>
       </c>
@@ -5403,9 +6497,11 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>98</v>
-      </c>
-      <c r="B381"/>
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
       <c r="C381" t="n">
         <v>2013</v>
       </c>
@@ -5415,9 +6511,11 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>99</v>
-      </c>
-      <c r="B382"/>
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
       <c r="C382" t="n">
         <v>2010</v>
       </c>
@@ -5427,9 +6525,11 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>99</v>
-      </c>
-      <c r="B383"/>
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
       <c r="C383" t="n">
         <v>2011</v>
       </c>
@@ -5439,9 +6539,11 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>99</v>
-      </c>
-      <c r="B384"/>
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
       <c r="C384" t="n">
         <v>2012</v>
       </c>
@@ -5451,9 +6553,11 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>99</v>
-      </c>
-      <c r="B385"/>
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
       <c r="C385" t="n">
         <v>2013</v>
       </c>
@@ -5463,9 +6567,11 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>100</v>
-      </c>
-      <c r="B386"/>
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
       <c r="C386" t="n">
         <v>2010</v>
       </c>
@@ -5475,9 +6581,11 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>100</v>
-      </c>
-      <c r="B387"/>
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
       <c r="C387" t="n">
         <v>2011</v>
       </c>
@@ -5487,9 +6595,11 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>100</v>
-      </c>
-      <c r="B388"/>
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
       <c r="C388" t="n">
         <v>2012</v>
       </c>
@@ -5499,9 +6609,11 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>100</v>
-      </c>
-      <c r="B389"/>
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
       <c r="C389" t="n">
         <v>2013</v>
       </c>
@@ -5511,9 +6623,11 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>101</v>
-      </c>
-      <c r="B390"/>
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
       <c r="C390" t="n">
         <v>2010</v>
       </c>
@@ -5523,9 +6637,11 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>101</v>
-      </c>
-      <c r="B391"/>
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
       <c r="C391" t="n">
         <v>2011</v>
       </c>
@@ -5535,9 +6651,11 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>101</v>
-      </c>
-      <c r="B392"/>
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
       <c r="C392" t="n">
         <v>2012</v>
       </c>
@@ -5547,9 +6665,11 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>101</v>
-      </c>
-      <c r="B393"/>
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
       <c r="C393" t="n">
         <v>2013</v>
       </c>
@@ -5559,9 +6679,11 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>102</v>
-      </c>
-      <c r="B394"/>
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
       <c r="C394" t="n">
         <v>2010</v>
       </c>
@@ -5571,9 +6693,11 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>102</v>
-      </c>
-      <c r="B395"/>
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
       <c r="C395" t="n">
         <v>2011</v>
       </c>
@@ -5583,9 +6707,11 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>102</v>
-      </c>
-      <c r="B396"/>
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
       <c r="C396" t="n">
         <v>2012</v>
       </c>
@@ -5595,9 +6721,11 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>102</v>
-      </c>
-      <c r="B397"/>
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
       <c r="C397" t="n">
         <v>2013</v>
       </c>
@@ -5607,9 +6735,11 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>103</v>
-      </c>
-      <c r="B398"/>
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
       <c r="C398" t="n">
         <v>2010</v>
       </c>
@@ -5619,9 +6749,11 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>103</v>
-      </c>
-      <c r="B399"/>
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
       <c r="C399" t="n">
         <v>2011</v>
       </c>
@@ -5631,9 +6763,11 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>103</v>
-      </c>
-      <c r="B400"/>
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
       <c r="C400" t="n">
         <v>2012</v>
       </c>
@@ -5643,9 +6777,11 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>103</v>
-      </c>
-      <c r="B401"/>
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
       <c r="C401" t="n">
         <v>2013</v>
       </c>
@@ -5655,9 +6791,11 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>104</v>
-      </c>
-      <c r="B402"/>
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
       <c r="C402" t="n">
         <v>2010</v>
       </c>
@@ -5667,9 +6805,11 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>104</v>
-      </c>
-      <c r="B403"/>
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
       <c r="C403" t="n">
         <v>2011</v>
       </c>
@@ -5679,9 +6819,11 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>104</v>
-      </c>
-      <c r="B404"/>
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
       <c r="C404" t="n">
         <v>2012</v>
       </c>
@@ -5691,9 +6833,11 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>104</v>
-      </c>
-      <c r="B405"/>
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
       <c r="C405" t="n">
         <v>2013</v>
       </c>
@@ -5703,9 +6847,11 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>105</v>
-      </c>
-      <c r="B406"/>
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
       <c r="C406" t="n">
         <v>2010</v>
       </c>
@@ -5715,9 +6861,11 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>105</v>
-      </c>
-      <c r="B407"/>
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
       <c r="C407" t="n">
         <v>2011</v>
       </c>
@@ -5727,9 +6875,11 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>105</v>
-      </c>
-      <c r="B408"/>
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
       <c r="C408" t="n">
         <v>2012</v>
       </c>
@@ -5739,9 +6889,11 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>105</v>
-      </c>
-      <c r="B409"/>
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
       <c r="C409" t="n">
         <v>2013</v>
       </c>
@@ -5751,9 +6903,11 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>106</v>
-      </c>
-      <c r="B410"/>
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
       <c r="C410" t="n">
         <v>2010</v>
       </c>
@@ -5763,9 +6917,11 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>106</v>
-      </c>
-      <c r="B411"/>
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
       <c r="C411" t="n">
         <v>2011</v>
       </c>
@@ -5775,9 +6931,11 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>106</v>
-      </c>
-      <c r="B412"/>
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
       <c r="C412" t="n">
         <v>2012</v>
       </c>
@@ -5787,9 +6945,11 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>106</v>
-      </c>
-      <c r="B413"/>
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
       <c r="C413" t="n">
         <v>2013</v>
       </c>
@@ -5799,9 +6959,11 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>107</v>
-      </c>
-      <c r="B414"/>
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
       <c r="C414" t="n">
         <v>2010</v>
       </c>
@@ -5811,9 +6973,11 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>107</v>
-      </c>
-      <c r="B415"/>
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
       <c r="C415" t="n">
         <v>2011</v>
       </c>
@@ -5823,9 +6987,11 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>107</v>
-      </c>
-      <c r="B416"/>
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
       <c r="C416" t="n">
         <v>2012</v>
       </c>
@@ -5835,9 +7001,11 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>107</v>
-      </c>
-      <c r="B417"/>
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
       <c r="C417" t="n">
         <v>2013</v>
       </c>
@@ -5847,9 +7015,11 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>108</v>
-      </c>
-      <c r="B418"/>
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
       <c r="C418" t="n">
         <v>2010</v>
       </c>
@@ -5859,9 +7029,11 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>108</v>
-      </c>
-      <c r="B419"/>
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
       <c r="C419" t="n">
         <v>2011</v>
       </c>
@@ -5871,9 +7043,11 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>108</v>
-      </c>
-      <c r="B420"/>
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
       <c r="C420" t="n">
         <v>2012</v>
       </c>
@@ -5883,9 +7057,11 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>108</v>
-      </c>
-      <c r="B421"/>
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
       <c r="C421" t="n">
         <v>2013</v>
       </c>
@@ -5895,9 +7071,11 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>109</v>
-      </c>
-      <c r="B422"/>
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
       <c r="C422" t="n">
         <v>2010</v>
       </c>
@@ -5907,9 +7085,11 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>109</v>
-      </c>
-      <c r="B423"/>
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
       <c r="C423" t="n">
         <v>2011</v>
       </c>
@@ -5919,9 +7099,11 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>109</v>
-      </c>
-      <c r="B424"/>
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
       <c r="C424" t="n">
         <v>2012</v>
       </c>
@@ -5931,9 +7113,11 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>109</v>
-      </c>
-      <c r="B425"/>
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
       <c r="C425" t="n">
         <v>2013</v>
       </c>
@@ -5943,9 +7127,11 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>110</v>
-      </c>
-      <c r="B426"/>
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
       <c r="C426" t="n">
         <v>2010</v>
       </c>
@@ -5955,9 +7141,11 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>110</v>
-      </c>
-      <c r="B427"/>
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
       <c r="C427" t="n">
         <v>2011</v>
       </c>
@@ -5967,9 +7155,11 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>110</v>
-      </c>
-      <c r="B428"/>
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
       <c r="C428" t="n">
         <v>2012</v>
       </c>
@@ -5979,9 +7169,11 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>110</v>
-      </c>
-      <c r="B429"/>
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
       <c r="C429" t="n">
         <v>2013</v>
       </c>
@@ -5991,9 +7183,11 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>111</v>
-      </c>
-      <c r="B430"/>
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
       <c r="C430" t="n">
         <v>2010</v>
       </c>
@@ -6003,9 +7197,11 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>111</v>
-      </c>
-      <c r="B431"/>
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
       <c r="C431" t="n">
         <v>2011</v>
       </c>
@@ -6015,9 +7211,11 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>111</v>
-      </c>
-      <c r="B432"/>
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
       <c r="C432" t="n">
         <v>2012</v>
       </c>
@@ -6027,9 +7225,11 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>111</v>
-      </c>
-      <c r="B433"/>
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
       <c r="C433" t="n">
         <v>2013</v>
       </c>
@@ -6039,9 +7239,11 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>112</v>
-      </c>
-      <c r="B434"/>
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
       <c r="C434" t="n">
         <v>2010</v>
       </c>
@@ -6051,9 +7253,11 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>112</v>
-      </c>
-      <c r="B435"/>
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
       <c r="C435" t="n">
         <v>2011</v>
       </c>
@@ -6063,9 +7267,11 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>112</v>
-      </c>
-      <c r="B436"/>
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
       <c r="C436" t="n">
         <v>2012</v>
       </c>
@@ -6075,9 +7281,11 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>112</v>
-      </c>
-      <c r="B437"/>
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
       <c r="C437" t="n">
         <v>2013</v>
       </c>
@@ -6087,9 +7295,11 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>113</v>
-      </c>
-      <c r="B438"/>
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
       <c r="C438" t="n">
         <v>2010</v>
       </c>
@@ -6099,9 +7309,11 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>113</v>
-      </c>
-      <c r="B439"/>
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
       <c r="C439" t="n">
         <v>2011</v>
       </c>
@@ -6111,9 +7323,11 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>113</v>
-      </c>
-      <c r="B440"/>
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
       <c r="C440" t="n">
         <v>2012</v>
       </c>
@@ -6123,9 +7337,11 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>113</v>
-      </c>
-      <c r="B441"/>
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
       <c r="C441" t="n">
         <v>2013</v>
       </c>
@@ -6135,9 +7351,11 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>114</v>
-      </c>
-      <c r="B442"/>
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
       <c r="C442" t="n">
         <v>2010</v>
       </c>
@@ -6147,9 +7365,11 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>114</v>
-      </c>
-      <c r="B443"/>
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
       <c r="C443" t="n">
         <v>2011</v>
       </c>
@@ -6159,9 +7379,11 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>114</v>
-      </c>
-      <c r="B444"/>
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
       <c r="C444" t="n">
         <v>2012</v>
       </c>
@@ -6171,9 +7393,11 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>114</v>
-      </c>
-      <c r="B445"/>
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
       <c r="C445" t="n">
         <v>2013</v>
       </c>
@@ -6183,9 +7407,11 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>115</v>
-      </c>
-      <c r="B446"/>
+        <v>226</v>
+      </c>
+      <c r="B446" t="s">
+        <v>227</v>
+      </c>
       <c r="C446" t="n">
         <v>2010</v>
       </c>
@@ -6195,9 +7421,11 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>115</v>
-      </c>
-      <c r="B447"/>
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
       <c r="C447" t="n">
         <v>2011</v>
       </c>
@@ -6207,9 +7435,11 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>115</v>
-      </c>
-      <c r="B448"/>
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
       <c r="C448" t="n">
         <v>2012</v>
       </c>
@@ -6219,9 +7449,11 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>115</v>
-      </c>
-      <c r="B449"/>
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
       <c r="C449" t="n">
         <v>2013</v>
       </c>
@@ -6248,16 +7480,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -6279,7 +7511,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>43</v>
@@ -6296,7 +7528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>41</v>
@@ -6313,7 +7545,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>52</v>
@@ -6330,7 +7562,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>46</v>
@@ -6347,7 +7579,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>50</v>
@@ -6364,7 +7596,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>60</v>
@@ -6381,7 +7613,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>46</v>
@@ -6398,7 +7630,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>44</v>
@@ -6415,7 +7647,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>44</v>
@@ -6432,7 +7664,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>61</v>
@@ -6449,7 +7681,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>60</v>
@@ -6466,7 +7698,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>38</v>
@@ -6483,7 +7715,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
         <v>45</v>
@@ -6500,7 +7732,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
         <v>42</v>
@@ -6517,7 +7749,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>53</v>
@@ -6534,7 +7766,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>55</v>
@@ -6551,7 +7783,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>60</v>
@@ -6568,7 +7800,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
         <v>54</v>
@@ -6585,7 +7817,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B21" t="n">
         <v>74</v>
@@ -6602,7 +7834,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
         <v>54</v>
@@ -6619,7 +7851,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
         <v>52</v>
@@ -6636,7 +7868,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
         <v>50</v>
@@ -6653,7 +7885,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
         <v>55</v>
@@ -6670,7 +7902,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B26" t="n">
         <v>65</v>
@@ -6687,7 +7919,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
         <v>65</v>
@@ -6704,7 +7936,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
         <v>53</v>
@@ -6721,7 +7953,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B29" t="n">
         <v>48</v>
@@ -6738,7 +7970,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B30" t="n">
         <v>60</v>
@@ -6755,7 +7987,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>45</v>
@@ -6772,7 +8004,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
         <v>61</v>
@@ -6789,7 +8021,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
         <v>72</v>
@@ -6806,7 +8038,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n">
         <v>58</v>
@@ -6823,7 +8055,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B35" t="n">
         <v>66</v>
@@ -6840,7 +8072,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
         <v>63</v>
@@ -6857,7 +8089,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B37" t="n">
         <v>72</v>
@@ -6874,7 +8106,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
         <v>75</v>
@@ -6891,7 +8123,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B39" t="n">
         <v>65</v>
@@ -6908,7 +8140,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B40" t="n">
         <v>40</v>
@@ -6925,7 +8157,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41" t="n">
         <v>65</v>
@@ -6942,7 +8174,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B42" t="n">
         <v>70</v>
@@ -6959,7 +8191,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B43" t="n">
         <v>55</v>
@@ -6976,7 +8208,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
         <v>70</v>
@@ -6993,7 +8225,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B45" t="n">
         <v>57</v>
@@ -7010,7 +8242,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B46" t="n">
         <v>74</v>
@@ -7027,7 +8259,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B47" t="n">
         <v>70</v>
@@ -7044,7 +8276,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n">
         <v>56</v>
@@ -7061,7 +8293,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
         <v>66</v>
@@ -7078,7 +8310,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
         <v>59</v>
@@ -7095,7 +8327,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51" t="n">
         <v>91</v>
@@ -7112,7 +8344,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B52" t="n">
         <v>76</v>
@@ -7129,7 +8361,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B53" t="n">
         <v>52</v>
@@ -7146,7 +8378,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54" t="n">
         <v>60</v>
@@ -7163,7 +8395,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B55" t="n">
         <v>70</v>
@@ -7180,7 +8412,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B56" t="n">
         <v>64</v>
@@ -7197,7 +8429,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
         <v>46</v>
@@ -7214,7 +8446,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58" t="n">
         <v>60</v>
@@ -7231,7 +8463,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B59" t="n">
         <v>69</v>
@@ -7248,7 +8480,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B60" t="n">
         <v>64</v>
@@ -7265,7 +8497,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B61" t="n">
         <v>56</v>
@@ -7282,7 +8514,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B62" t="n">
         <v>69</v>
@@ -7299,7 +8531,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B63" t="n">
         <v>97</v>
@@ -7316,7 +8548,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B64" t="n">
         <v>56</v>
@@ -7333,7 +8565,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B65" t="n">
         <v>66</v>
@@ -7350,7 +8582,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B66" t="n">
         <v>45</v>
@@ -7367,7 +8599,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B67" t="n">
         <v>66</v>
@@ -7384,7 +8616,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B68" t="n">
         <v>69</v>
@@ -7401,7 +8633,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B69" t="n">
         <v>74</v>
@@ -7418,7 +8650,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B70" t="n">
         <v>51</v>
@@ -7435,7 +8667,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B71" t="n">
         <v>63</v>
@@ -7452,7 +8684,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
         <v>65</v>
@@ -7469,7 +8701,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B73" t="n">
         <v>78</v>
@@ -7486,7 +8718,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B74" t="n">
         <v>69</v>
@@ -7503,7 +8735,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B75" t="n">
         <v>82</v>
@@ -7520,7 +8752,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B76" t="n">
         <v>69</v>
@@ -7537,7 +8769,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B77" t="n">
         <v>65</v>
@@ -7554,7 +8786,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B78" t="n">
         <v>68</v>
@@ -7571,7 +8803,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B79" t="n">
         <v>79</v>
@@ -7588,7 +8820,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B80" t="n">
         <v>74</v>
@@ -7605,7 +8837,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B81" t="n">
         <v>103</v>
@@ -7622,7 +8854,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>69</v>
@@ -7639,7 +8871,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B83" t="n">
         <v>76</v>
@@ -7656,7 +8888,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B84" t="n">
         <v>71</v>
@@ -7673,7 +8905,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
         <v>73</v>
@@ -7690,7 +8922,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>72</v>
@@ -7707,7 +8939,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B87" t="n">
         <v>73</v>
@@ -7724,7 +8956,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88" t="n">
         <v>56</v>
@@ -7741,7 +8973,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B89" t="n">
         <v>40</v>
@@ -7758,7 +8990,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B90" t="n">
         <v>57</v>
@@ -7775,7 +9007,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B91" t="n">
         <v>39</v>
@@ -7792,7 +9024,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B92" t="n">
         <v>59</v>
@@ -7809,7 +9041,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B93" t="n">
         <v>51</v>
@@ -7826,7 +9058,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
         <v>65</v>
@@ -7843,7 +9075,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B95" t="n">
         <v>56</v>
@@ -7860,7 +9092,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B96" t="n">
         <v>54</v>
@@ -7877,7 +9109,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B97" t="n">
         <v>38</v>
@@ -7894,7 +9126,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B98" t="n">
         <v>48</v>
@@ -7911,7 +9143,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B99" t="n">
         <v>39</v>
@@ -7928,7 +9160,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>59</v>
@@ -7945,7 +9177,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>51</v>
@@ -7962,7 +9194,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>68</v>
@@ -7979,7 +9211,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>68</v>
@@ -7996,7 +9228,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>43</v>
@@ -8013,7 +9245,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>51</v>
@@ -8030,7 +9262,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>52</v>
@@ -8047,7 +9279,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>46</v>
@@ -8064,7 +9296,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>68</v>
@@ -8081,7 +9313,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>74</v>
@@ -8098,7 +9330,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B110" t="n">
         <v>43</v>
@@ -8115,7 +9347,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B111" t="n">
         <v>51</v>
@@ -8132,7 +9364,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B112" t="n">
         <v>50</v>
@@ -8149,7 +9381,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B113" t="n">
         <v>70</v>

--- a/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
+++ b/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
@@ -28,36 +28,498 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -76,28 +538,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -106,598 +688,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2010</t>
@@ -1200,7 +1200,7 @@
         <v>2010</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1214,7 +1214,7 @@
         <v>2011</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         <v>2012</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1242,7 @@
         <v>2013</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -1256,7 +1256,7 @@
         <v>2010</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1270,7 +1270,7 @@
         <v>2011</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1284,7 +1284,7 @@
         <v>2012</v>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -1298,7 +1298,7 @@
         <v>2013</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>2010</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -1326,7 +1326,7 @@
         <v>2011</v>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -1340,7 +1340,7 @@
         <v>2012</v>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1354,7 +1354,7 @@
         <v>2013</v>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1368,7 +1368,7 @@
         <v>2010</v>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -1382,7 +1382,7 @@
         <v>2011</v>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1396,7 +1396,7 @@
         <v>2012</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -1410,7 +1410,7 @@
         <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1424,7 +1424,7 @@
         <v>2010</v>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -1438,7 +1438,7 @@
         <v>2011</v>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -1452,7 +1452,7 @@
         <v>2012</v>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1466,7 +1466,7 @@
         <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1480,7 +1480,7 @@
         <v>2010</v>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
@@ -1494,7 +1494,7 @@
         <v>2011</v>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -1508,7 +1508,7 @@
         <v>2012</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1522,7 +1522,7 @@
         <v>2013</v>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -1536,7 +1536,7 @@
         <v>2010</v>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1550,7 +1550,7 @@
         <v>2011</v>
       </c>
       <c r="D27" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -1564,7 +1564,7 @@
         <v>2012</v>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -1578,7 +1578,7 @@
         <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -1592,7 +1592,7 @@
         <v>2010</v>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -1606,7 +1606,7 @@
         <v>2011</v>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -1620,7 +1620,7 @@
         <v>2012</v>
       </c>
       <c r="D32" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -1634,7 +1634,7 @@
         <v>2013</v>
       </c>
       <c r="D33" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -1648,7 +1648,7 @@
         <v>2010</v>
       </c>
       <c r="D34" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -1662,7 +1662,7 @@
         <v>2011</v>
       </c>
       <c r="D35" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
@@ -1676,7 +1676,7 @@
         <v>2012</v>
       </c>
       <c r="D36" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -1690,7 +1690,7 @@
         <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1704,7 @@
         <v>2010</v>
       </c>
       <c r="D38" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39">
@@ -1718,7 +1718,7 @@
         <v>2011</v>
       </c>
       <c r="D39" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -1732,7 +1732,7 @@
         <v>2012</v>
       </c>
       <c r="D40" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
@@ -1746,7 +1746,7 @@
         <v>2013</v>
       </c>
       <c r="D41" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -1760,7 +1760,7 @@
         <v>2010</v>
       </c>
       <c r="D42" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -1774,7 +1774,7 @@
         <v>2011</v>
       </c>
       <c r="D43" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
@@ -1788,7 +1788,7 @@
         <v>2012</v>
       </c>
       <c r="D44" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -1802,7 +1802,7 @@
         <v>2013</v>
       </c>
       <c r="D45" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -1816,7 +1816,7 @@
         <v>2010</v>
       </c>
       <c r="D46" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
@@ -1830,7 +1830,7 @@
         <v>2011</v>
       </c>
       <c r="D47" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -1844,7 +1844,7 @@
         <v>2012</v>
       </c>
       <c r="D48" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -1858,7 +1858,7 @@
         <v>2013</v>
       </c>
       <c r="D49" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
@@ -1872,7 +1872,7 @@
         <v>2010</v>
       </c>
       <c r="D50" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
@@ -1886,7 +1886,7 @@
         <v>2011</v>
       </c>
       <c r="D51" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52">
@@ -1900,7 +1900,7 @@
         <v>2012</v>
       </c>
       <c r="D52" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -1914,7 +1914,7 @@
         <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -1928,7 +1928,7 @@
         <v>2010</v>
       </c>
       <c r="D54" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
@@ -1956,7 +1956,7 @@
         <v>2012</v>
       </c>
       <c r="D56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
@@ -1970,7 +1970,7 @@
         <v>2013</v>
       </c>
       <c r="D57" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
@@ -1984,7 +1984,7 @@
         <v>2010</v>
       </c>
       <c r="D58" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -1998,7 +1998,7 @@
         <v>2011</v>
       </c>
       <c r="D59" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60">
@@ -2012,7 +2012,7 @@
         <v>2012</v>
       </c>
       <c r="D60" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
@@ -2026,7 +2026,7 @@
         <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
@@ -2040,7 +2040,7 @@
         <v>2010</v>
       </c>
       <c r="D62" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63">
@@ -2054,7 +2054,7 @@
         <v>2011</v>
       </c>
       <c r="D63" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -2068,7 +2068,7 @@
         <v>2012</v>
       </c>
       <c r="D64" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
@@ -2082,7 +2082,7 @@
         <v>2013</v>
       </c>
       <c r="D65" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
@@ -2096,7 +2096,7 @@
         <v>2010</v>
       </c>
       <c r="D66" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
@@ -2110,7 +2110,7 @@
         <v>2011</v>
       </c>
       <c r="D67" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68">
@@ -2124,7 +2124,7 @@
         <v>2012</v>
       </c>
       <c r="D68" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
@@ -2138,7 +2138,7 @@
         <v>2013</v>
       </c>
       <c r="D69" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70">
@@ -2152,7 +2152,7 @@
         <v>2010</v>
       </c>
       <c r="D70" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71">
@@ -2166,7 +2166,7 @@
         <v>2011</v>
       </c>
       <c r="D71" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72">
@@ -2180,7 +2180,7 @@
         <v>2012</v>
       </c>
       <c r="D72" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73">
@@ -2194,7 +2194,7 @@
         <v>2013</v>
       </c>
       <c r="D73" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74">
@@ -2208,7 +2208,7 @@
         <v>2010</v>
       </c>
       <c r="D74" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75">
@@ -2222,7 +2222,7 @@
         <v>2011</v>
       </c>
       <c r="D75" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76">
@@ -2236,7 +2236,7 @@
         <v>2012</v>
       </c>
       <c r="D76" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
@@ -2250,7 +2250,7 @@
         <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78">
@@ -2264,7 +2264,7 @@
         <v>2010</v>
       </c>
       <c r="D78" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79">
@@ -2278,7 +2278,7 @@
         <v>2011</v>
       </c>
       <c r="D79" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80">
@@ -2292,7 +2292,7 @@
         <v>2012</v>
       </c>
       <c r="D80" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
@@ -2306,7 +2306,7 @@
         <v>2013</v>
       </c>
       <c r="D81" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82">
@@ -2320,7 +2320,7 @@
         <v>2010</v>
       </c>
       <c r="D82" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83">
@@ -2334,7 +2334,7 @@
         <v>2011</v>
       </c>
       <c r="D83" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
@@ -2348,7 +2348,7 @@
         <v>2012</v>
       </c>
       <c r="D84" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85">
@@ -2362,7 +2362,7 @@
         <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86">
@@ -2376,7 +2376,7 @@
         <v>2010</v>
       </c>
       <c r="D86" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -2390,7 +2390,7 @@
         <v>2011</v>
       </c>
       <c r="D87" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
@@ -2404,7 +2404,7 @@
         <v>2012</v>
       </c>
       <c r="D88" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
@@ -2418,7 +2418,7 @@
         <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90">
@@ -2432,7 +2432,7 @@
         <v>2010</v>
       </c>
       <c r="D90" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91">
@@ -2446,7 +2446,7 @@
         <v>2011</v>
       </c>
       <c r="D91" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92">
@@ -2460,7 +2460,7 @@
         <v>2012</v>
       </c>
       <c r="D92" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93">
@@ -2474,7 +2474,7 @@
         <v>2013</v>
       </c>
       <c r="D93" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94">
@@ -2488,7 +2488,7 @@
         <v>2010</v>
       </c>
       <c r="D94" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95">
@@ -2502,7 +2502,7 @@
         <v>2011</v>
       </c>
       <c r="D95" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
@@ -2516,7 +2516,7 @@
         <v>2012</v>
       </c>
       <c r="D96" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
@@ -2530,7 +2530,7 @@
         <v>2013</v>
       </c>
       <c r="D97" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
@@ -2544,7 +2544,7 @@
         <v>2010</v>
       </c>
       <c r="D98" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99">
@@ -2558,7 +2558,7 @@
         <v>2011</v>
       </c>
       <c r="D99" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100">
@@ -2572,7 +2572,7 @@
         <v>2012</v>
       </c>
       <c r="D100" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101">
@@ -2586,7 +2586,7 @@
         <v>2013</v>
       </c>
       <c r="D101" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102">
@@ -2600,7 +2600,7 @@
         <v>2010</v>
       </c>
       <c r="D102" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103">
@@ -2614,7 +2614,7 @@
         <v>2011</v>
       </c>
       <c r="D103" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104">
@@ -2628,7 +2628,7 @@
         <v>2012</v>
       </c>
       <c r="D104" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105">
@@ -2656,7 +2656,7 @@
         <v>2010</v>
       </c>
       <c r="D106" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107">
@@ -2670,7 +2670,7 @@
         <v>2011</v>
       </c>
       <c r="D107" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
@@ -2684,7 +2684,7 @@
         <v>2012</v>
       </c>
       <c r="D108" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109">
@@ -2698,7 +2698,7 @@
         <v>2013</v>
       </c>
       <c r="D109" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110">
@@ -2712,7 +2712,7 @@
         <v>2010</v>
       </c>
       <c r="D110" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111">
@@ -2726,7 +2726,7 @@
         <v>2011</v>
       </c>
       <c r="D111" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112">
@@ -2740,7 +2740,7 @@
         <v>2012</v>
       </c>
       <c r="D112" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
@@ -2754,7 +2754,7 @@
         <v>2013</v>
       </c>
       <c r="D113" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
@@ -2768,7 +2768,7 @@
         <v>2010</v>
       </c>
       <c r="D114" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115">
@@ -2782,7 +2782,7 @@
         <v>2011</v>
       </c>
       <c r="D115" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116">
@@ -2824,7 +2824,7 @@
         <v>2010</v>
       </c>
       <c r="D118" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119">
@@ -2838,7 +2838,7 @@
         <v>2011</v>
       </c>
       <c r="D119" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
@@ -2866,7 +2866,7 @@
         <v>2013</v>
       </c>
       <c r="D121" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122">
@@ -2880,7 +2880,7 @@
         <v>2010</v>
       </c>
       <c r="D122" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123">
@@ -2894,7 +2894,7 @@
         <v>2011</v>
       </c>
       <c r="D123" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124">
@@ -2908,7 +2908,7 @@
         <v>2012</v>
       </c>
       <c r="D124" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125">
@@ -2922,7 +2922,7 @@
         <v>2013</v>
       </c>
       <c r="D125" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126">
@@ -2936,7 +2936,7 @@
         <v>2010</v>
       </c>
       <c r="D126" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127">
@@ -2950,7 +2950,7 @@
         <v>2011</v>
       </c>
       <c r="D127" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128">
@@ -2964,7 +2964,7 @@
         <v>2012</v>
       </c>
       <c r="D128" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129">
@@ -2978,7 +2978,7 @@
         <v>2013</v>
       </c>
       <c r="D129" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130">
@@ -2992,7 +2992,7 @@
         <v>2010</v>
       </c>
       <c r="D130" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131">
@@ -3006,7 +3006,7 @@
         <v>2011</v>
       </c>
       <c r="D131" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
@@ -3020,7 +3020,7 @@
         <v>2012</v>
       </c>
       <c r="D132" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133">
@@ -3034,7 +3034,7 @@
         <v>2013</v>
       </c>
       <c r="D133" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134">
@@ -3048,7 +3048,7 @@
         <v>2010</v>
       </c>
       <c r="D134" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135">
@@ -3062,7 +3062,7 @@
         <v>2011</v>
       </c>
       <c r="D135" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136">
@@ -3076,7 +3076,7 @@
         <v>2012</v>
       </c>
       <c r="D136" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137">
@@ -3090,7 +3090,7 @@
         <v>2013</v>
       </c>
       <c r="D137" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138">
@@ -3104,7 +3104,7 @@
         <v>2010</v>
       </c>
       <c r="D138" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139">
@@ -3118,7 +3118,7 @@
         <v>2011</v>
       </c>
       <c r="D139" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140">
@@ -3132,7 +3132,7 @@
         <v>2012</v>
       </c>
       <c r="D140" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
@@ -3146,7 +3146,7 @@
         <v>2013</v>
       </c>
       <c r="D141" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142">
@@ -3160,7 +3160,7 @@
         <v>2010</v>
       </c>
       <c r="D142" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143">
@@ -3174,7 +3174,7 @@
         <v>2011</v>
       </c>
       <c r="D143" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144">
@@ -3188,7 +3188,7 @@
         <v>2012</v>
       </c>
       <c r="D144" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145">
@@ -3202,7 +3202,7 @@
         <v>2013</v>
       </c>
       <c r="D145" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146">
@@ -3216,7 +3216,7 @@
         <v>2010</v>
       </c>
       <c r="D146" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147">
@@ -3230,7 +3230,7 @@
         <v>2011</v>
       </c>
       <c r="D147" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148">
@@ -3244,7 +3244,7 @@
         <v>2012</v>
       </c>
       <c r="D148" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149">
@@ -3258,7 +3258,7 @@
         <v>2013</v>
       </c>
       <c r="D149" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150">
@@ -3272,7 +3272,7 @@
         <v>2010</v>
       </c>
       <c r="D150" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151">
@@ -3286,7 +3286,7 @@
         <v>2011</v>
       </c>
       <c r="D151" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152">
@@ -3300,7 +3300,7 @@
         <v>2012</v>
       </c>
       <c r="D152" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153">
@@ -3314,7 +3314,7 @@
         <v>2013</v>
       </c>
       <c r="D153" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154">
@@ -3328,7 +3328,7 @@
         <v>2010</v>
       </c>
       <c r="D154" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155">
@@ -3342,7 +3342,7 @@
         <v>2011</v>
       </c>
       <c r="D155" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156">
@@ -3356,7 +3356,7 @@
         <v>2012</v>
       </c>
       <c r="D156" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157">
@@ -3370,7 +3370,7 @@
         <v>2013</v>
       </c>
       <c r="D157" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158">
@@ -3384,7 +3384,7 @@
         <v>2010</v>
       </c>
       <c r="D158" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159">
@@ -3398,7 +3398,7 @@
         <v>2011</v>
       </c>
       <c r="D159" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -3412,7 +3412,7 @@
         <v>2012</v>
       </c>
       <c r="D160" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161">
@@ -3426,7 +3426,7 @@
         <v>2013</v>
       </c>
       <c r="D161" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
@@ -3454,7 +3454,7 @@
         <v>2011</v>
       </c>
       <c r="D163" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164">
@@ -3468,7 +3468,7 @@
         <v>2012</v>
       </c>
       <c r="D164" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165">
@@ -3482,7 +3482,7 @@
         <v>2013</v>
       </c>
       <c r="D165" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166">
@@ -3496,7 +3496,7 @@
         <v>2010</v>
       </c>
       <c r="D166" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167">
@@ -3510,7 +3510,7 @@
         <v>2011</v>
       </c>
       <c r="D167" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168">
@@ -3524,7 +3524,7 @@
         <v>2012</v>
       </c>
       <c r="D168" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169">
@@ -3538,7 +3538,7 @@
         <v>2013</v>
       </c>
       <c r="D169" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170">
@@ -3552,7 +3552,7 @@
         <v>2010</v>
       </c>
       <c r="D170" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171">
@@ -3566,7 +3566,7 @@
         <v>2011</v>
       </c>
       <c r="D171" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172">
@@ -3580,7 +3580,7 @@
         <v>2012</v>
       </c>
       <c r="D172" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173">
@@ -3594,7 +3594,7 @@
         <v>2013</v>
       </c>
       <c r="D173" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="174">
@@ -3608,7 +3608,7 @@
         <v>2010</v>
       </c>
       <c r="D174" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175">
@@ -3622,7 +3622,7 @@
         <v>2011</v>
       </c>
       <c r="D175" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176">
@@ -3636,7 +3636,7 @@
         <v>2012</v>
       </c>
       <c r="D176" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177">
@@ -3650,7 +3650,7 @@
         <v>2013</v>
       </c>
       <c r="D177" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178">
@@ -3664,7 +3664,7 @@
         <v>2010</v>
       </c>
       <c r="D178" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179">
@@ -3678,7 +3678,7 @@
         <v>2011</v>
       </c>
       <c r="D179" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180">
@@ -3692,7 +3692,7 @@
         <v>2012</v>
       </c>
       <c r="D180" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181">
@@ -3706,7 +3706,7 @@
         <v>2013</v>
       </c>
       <c r="D181" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182">
@@ -3720,7 +3720,7 @@
         <v>2010</v>
       </c>
       <c r="D182" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183">
@@ -3734,7 +3734,7 @@
         <v>2011</v>
       </c>
       <c r="D183" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184">
@@ -3748,7 +3748,7 @@
         <v>2012</v>
       </c>
       <c r="D184" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185">
@@ -3762,7 +3762,7 @@
         <v>2013</v>
       </c>
       <c r="D185" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186">
@@ -3776,7 +3776,7 @@
         <v>2010</v>
       </c>
       <c r="D186" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187">
@@ -3790,7 +3790,7 @@
         <v>2011</v>
       </c>
       <c r="D187" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188">
@@ -3804,7 +3804,7 @@
         <v>2012</v>
       </c>
       <c r="D188" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189">
@@ -3818,7 +3818,7 @@
         <v>2013</v>
       </c>
       <c r="D189" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190">
@@ -3832,7 +3832,7 @@
         <v>2010</v>
       </c>
       <c r="D190" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="191">
@@ -3846,7 +3846,7 @@
         <v>2011</v>
       </c>
       <c r="D191" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192">
@@ -3860,7 +3860,7 @@
         <v>2012</v>
       </c>
       <c r="D192" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193">
@@ -3874,7 +3874,7 @@
         <v>2013</v>
       </c>
       <c r="D193" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="194">
@@ -3888,7 +3888,7 @@
         <v>2010</v>
       </c>
       <c r="D194" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195">
@@ -3916,7 +3916,7 @@
         <v>2012</v>
       </c>
       <c r="D196" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197">
@@ -3930,7 +3930,7 @@
         <v>2013</v>
       </c>
       <c r="D197" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198">
@@ -3944,7 +3944,7 @@
         <v>2010</v>
       </c>
       <c r="D198" t="n">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199">
@@ -3958,7 +3958,7 @@
         <v>2011</v>
       </c>
       <c r="D199" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200">
@@ -3972,7 +3972,7 @@
         <v>2012</v>
       </c>
       <c r="D200" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201">
@@ -3986,7 +3986,7 @@
         <v>2013</v>
       </c>
       <c r="D201" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202">
@@ -4000,7 +4000,7 @@
         <v>2010</v>
       </c>
       <c r="D202" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203">
@@ -4014,7 +4014,7 @@
         <v>2011</v>
       </c>
       <c r="D203" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204">
@@ -4028,7 +4028,7 @@
         <v>2012</v>
       </c>
       <c r="D204" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205">
@@ -4042,7 +4042,7 @@
         <v>2013</v>
       </c>
       <c r="D205" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206">
@@ -4056,7 +4056,7 @@
         <v>2010</v>
       </c>
       <c r="D206" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207">
@@ -4070,7 +4070,7 @@
         <v>2011</v>
       </c>
       <c r="D207" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208">
@@ -4084,7 +4084,7 @@
         <v>2012</v>
       </c>
       <c r="D208" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="209">
@@ -4098,7 +4098,7 @@
         <v>2013</v>
       </c>
       <c r="D209" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210">
@@ -4112,7 +4112,7 @@
         <v>2010</v>
       </c>
       <c r="D210" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211">
@@ -4126,7 +4126,7 @@
         <v>2011</v>
       </c>
       <c r="D211" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212">
@@ -4140,7 +4140,7 @@
         <v>2012</v>
       </c>
       <c r="D212" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213">
@@ -4154,7 +4154,7 @@
         <v>2013</v>
       </c>
       <c r="D213" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214">
@@ -4168,7 +4168,7 @@
         <v>2010</v>
       </c>
       <c r="D214" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215">
@@ -4182,7 +4182,7 @@
         <v>2011</v>
       </c>
       <c r="D215" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216">
@@ -4196,7 +4196,7 @@
         <v>2012</v>
       </c>
       <c r="D216" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="217">
@@ -4210,7 +4210,7 @@
         <v>2013</v>
       </c>
       <c r="D217" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="218">
@@ -4224,7 +4224,7 @@
         <v>2010</v>
       </c>
       <c r="D218" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219">
@@ -4238,7 +4238,7 @@
         <v>2011</v>
       </c>
       <c r="D219" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220">
@@ -4252,7 +4252,7 @@
         <v>2012</v>
       </c>
       <c r="D220" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="221">
@@ -4266,7 +4266,7 @@
         <v>2013</v>
       </c>
       <c r="D221" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="222">
@@ -4280,7 +4280,7 @@
         <v>2010</v>
       </c>
       <c r="D222" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223">
@@ -4294,7 +4294,7 @@
         <v>2011</v>
       </c>
       <c r="D223" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224">
@@ -4308,7 +4308,7 @@
         <v>2012</v>
       </c>
       <c r="D224" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="225">
@@ -4322,7 +4322,7 @@
         <v>2013</v>
       </c>
       <c r="D225" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="226">
@@ -4336,7 +4336,7 @@
         <v>2010</v>
       </c>
       <c r="D226" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227">
@@ -4350,7 +4350,7 @@
         <v>2011</v>
       </c>
       <c r="D227" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="228">
@@ -4364,7 +4364,7 @@
         <v>2012</v>
       </c>
       <c r="D228" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="229">
@@ -4378,7 +4378,7 @@
         <v>2013</v>
       </c>
       <c r="D229" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="230">
@@ -4406,7 +4406,7 @@
         <v>2011</v>
       </c>
       <c r="D231" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="232">
@@ -4420,7 +4420,7 @@
         <v>2012</v>
       </c>
       <c r="D232" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="233">
@@ -4434,7 +4434,7 @@
         <v>2013</v>
       </c>
       <c r="D233" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="234">
@@ -4448,7 +4448,7 @@
         <v>2010</v>
       </c>
       <c r="D234" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="235">
@@ -4462,7 +4462,7 @@
         <v>2011</v>
       </c>
       <c r="D235" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236">
@@ -4476,7 +4476,7 @@
         <v>2012</v>
       </c>
       <c r="D236" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="237">
@@ -4490,7 +4490,7 @@
         <v>2013</v>
       </c>
       <c r="D237" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238">
@@ -4504,7 +4504,7 @@
         <v>2010</v>
       </c>
       <c r="D238" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="239">
@@ -4518,7 +4518,7 @@
         <v>2011</v>
       </c>
       <c r="D239" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="240">
@@ -4532,7 +4532,7 @@
         <v>2012</v>
       </c>
       <c r="D240" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="241">
@@ -4546,7 +4546,7 @@
         <v>2013</v>
       </c>
       <c r="D241" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242">
@@ -4560,7 +4560,7 @@
         <v>2010</v>
       </c>
       <c r="D242" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243">
@@ -4574,7 +4574,7 @@
         <v>2011</v>
       </c>
       <c r="D243" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>2012</v>
       </c>
       <c r="D244" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245">
@@ -4602,7 +4602,7 @@
         <v>2013</v>
       </c>
       <c r="D245" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246">
@@ -4616,7 +4616,7 @@
         <v>2010</v>
       </c>
       <c r="D246" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="247">
@@ -4630,7 +4630,7 @@
         <v>2011</v>
       </c>
       <c r="D247" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="248">
@@ -4644,7 +4644,7 @@
         <v>2012</v>
       </c>
       <c r="D248" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249">
@@ -4658,7 +4658,7 @@
         <v>2013</v>
       </c>
       <c r="D249" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="250">
@@ -4672,7 +4672,7 @@
         <v>2010</v>
       </c>
       <c r="D250" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="251">
@@ -4686,7 +4686,7 @@
         <v>2011</v>
       </c>
       <c r="D251" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="252">
@@ -4700,7 +4700,7 @@
         <v>2012</v>
       </c>
       <c r="D252" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="253">
@@ -4714,7 +4714,7 @@
         <v>2013</v>
       </c>
       <c r="D253" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="254">
@@ -4728,7 +4728,7 @@
         <v>2010</v>
       </c>
       <c r="D254" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255">
@@ -4742,7 +4742,7 @@
         <v>2011</v>
       </c>
       <c r="D255" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="256">
@@ -4756,7 +4756,7 @@
         <v>2012</v>
       </c>
       <c r="D256" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257">
@@ -4770,7 +4770,7 @@
         <v>2013</v>
       </c>
       <c r="D257" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="258">
@@ -4784,7 +4784,7 @@
         <v>2010</v>
       </c>
       <c r="D258" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="259">
@@ -4798,7 +4798,7 @@
         <v>2011</v>
       </c>
       <c r="D259" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="260">
@@ -4812,7 +4812,7 @@
         <v>2012</v>
       </c>
       <c r="D260" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="261">
@@ -4826,7 +4826,7 @@
         <v>2013</v>
       </c>
       <c r="D261" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="262">
@@ -4840,7 +4840,7 @@
         <v>2010</v>
       </c>
       <c r="D262" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="263">
@@ -4854,7 +4854,7 @@
         <v>2011</v>
       </c>
       <c r="D263" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="264">
@@ -4868,7 +4868,7 @@
         <v>2012</v>
       </c>
       <c r="D264" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="265">
@@ -4882,7 +4882,7 @@
         <v>2013</v>
       </c>
       <c r="D265" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266">
@@ -4896,7 +4896,7 @@
         <v>2010</v>
       </c>
       <c r="D266" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267">
@@ -4910,7 +4910,7 @@
         <v>2011</v>
       </c>
       <c r="D267" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="268">
@@ -4924,7 +4924,7 @@
         <v>2012</v>
       </c>
       <c r="D268" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="269">
@@ -4938,7 +4938,7 @@
         <v>2013</v>
       </c>
       <c r="D269" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="270">
@@ -4952,7 +4952,7 @@
         <v>2010</v>
       </c>
       <c r="D270" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271">
@@ -4966,7 +4966,7 @@
         <v>2011</v>
       </c>
       <c r="D271" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="272">
@@ -4980,7 +4980,7 @@
         <v>2012</v>
       </c>
       <c r="D272" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="273">
@@ -4994,7 +4994,7 @@
         <v>2013</v>
       </c>
       <c r="D273" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="274">
@@ -5008,7 +5008,7 @@
         <v>2010</v>
       </c>
       <c r="D274" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="275">
@@ -5022,7 +5022,7 @@
         <v>2011</v>
       </c>
       <c r="D275" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276">
@@ -5036,7 +5036,7 @@
         <v>2012</v>
       </c>
       <c r="D276" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="277">
@@ -5050,7 +5050,7 @@
         <v>2013</v>
       </c>
       <c r="D277" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="278">
@@ -5064,7 +5064,7 @@
         <v>2010</v>
       </c>
       <c r="D278" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="279">
@@ -5078,7 +5078,7 @@
         <v>2011</v>
       </c>
       <c r="D279" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="280">
@@ -5092,7 +5092,7 @@
         <v>2012</v>
       </c>
       <c r="D280" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="281">
@@ -5106,7 +5106,7 @@
         <v>2013</v>
       </c>
       <c r="D281" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="282">
@@ -5120,7 +5120,7 @@
         <v>2010</v>
       </c>
       <c r="D282" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283">
@@ -5134,7 +5134,7 @@
         <v>2011</v>
       </c>
       <c r="D283" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="284">
@@ -5148,7 +5148,7 @@
         <v>2012</v>
       </c>
       <c r="D284" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285">
@@ -5162,7 +5162,7 @@
         <v>2013</v>
       </c>
       <c r="D285" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="286">
@@ -5176,7 +5176,7 @@
         <v>2010</v>
       </c>
       <c r="D286" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="287">
@@ -5190,7 +5190,7 @@
         <v>2011</v>
       </c>
       <c r="D287" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="288">
@@ -5204,7 +5204,7 @@
         <v>2012</v>
       </c>
       <c r="D288" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="289">
@@ -5218,7 +5218,7 @@
         <v>2013</v>
       </c>
       <c r="D289" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="290">
@@ -5232,7 +5232,7 @@
         <v>2010</v>
       </c>
       <c r="D290" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="291">
@@ -5246,7 +5246,7 @@
         <v>2011</v>
       </c>
       <c r="D291" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="292">
@@ -5260,7 +5260,7 @@
         <v>2012</v>
       </c>
       <c r="D292" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="293">
@@ -5274,7 +5274,7 @@
         <v>2013</v>
       </c>
       <c r="D293" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="294">
@@ -5288,7 +5288,7 @@
         <v>2010</v>
       </c>
       <c r="D294" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="295">
@@ -5302,7 +5302,7 @@
         <v>2011</v>
       </c>
       <c r="D295" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="296">
@@ -5316,7 +5316,7 @@
         <v>2012</v>
       </c>
       <c r="D296" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="297">
@@ -5330,7 +5330,7 @@
         <v>2013</v>
       </c>
       <c r="D297" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="298">
@@ -5344,7 +5344,7 @@
         <v>2010</v>
       </c>
       <c r="D298" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="299">
@@ -5358,7 +5358,7 @@
         <v>2011</v>
       </c>
       <c r="D299" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="300">
@@ -5372,7 +5372,7 @@
         <v>2012</v>
       </c>
       <c r="D300" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301">
@@ -5386,7 +5386,7 @@
         <v>2013</v>
       </c>
       <c r="D301" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="302">
@@ -5428,7 +5428,7 @@
         <v>2012</v>
       </c>
       <c r="D304" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305">
@@ -5442,7 +5442,7 @@
         <v>2013</v>
       </c>
       <c r="D305" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="306">
@@ -5456,7 +5456,7 @@
         <v>2010</v>
       </c>
       <c r="D306" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="307">
@@ -5470,7 +5470,7 @@
         <v>2011</v>
       </c>
       <c r="D307" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="308">
@@ -5484,7 +5484,7 @@
         <v>2012</v>
       </c>
       <c r="D308" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="309">
@@ -5498,7 +5498,7 @@
         <v>2013</v>
       </c>
       <c r="D309" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="310">
@@ -5512,7 +5512,7 @@
         <v>2010</v>
       </c>
       <c r="D310" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="311">
@@ -5526,7 +5526,7 @@
         <v>2011</v>
       </c>
       <c r="D311" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="312">
@@ -5540,7 +5540,7 @@
         <v>2012</v>
       </c>
       <c r="D312" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="313">
@@ -5554,7 +5554,7 @@
         <v>2013</v>
       </c>
       <c r="D313" t="n">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="314">
@@ -5568,7 +5568,7 @@
         <v>2010</v>
       </c>
       <c r="D314" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="315">
@@ -5582,7 +5582,7 @@
         <v>2011</v>
       </c>
       <c r="D315" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316">
@@ -5596,7 +5596,7 @@
         <v>2012</v>
       </c>
       <c r="D316" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="317">
@@ -5610,7 +5610,7 @@
         <v>2013</v>
       </c>
       <c r="D317" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="318">
@@ -5624,7 +5624,7 @@
         <v>2010</v>
       </c>
       <c r="D318" t="n">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319">
@@ -5638,7 +5638,7 @@
         <v>2011</v>
       </c>
       <c r="D319" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="320">
@@ -5652,7 +5652,7 @@
         <v>2012</v>
       </c>
       <c r="D320" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="321">
@@ -5666,7 +5666,7 @@
         <v>2013</v>
       </c>
       <c r="D321" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="322">
@@ -5680,7 +5680,7 @@
         <v>2010</v>
       </c>
       <c r="D322" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="323">
@@ -5694,7 +5694,7 @@
         <v>2011</v>
       </c>
       <c r="D323" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="324">
@@ -5708,7 +5708,7 @@
         <v>2012</v>
       </c>
       <c r="D324" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="325">
@@ -5722,7 +5722,7 @@
         <v>2013</v>
       </c>
       <c r="D325" t="n">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="326">
@@ -5736,7 +5736,7 @@
         <v>2010</v>
       </c>
       <c r="D326" t="n">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="327">
@@ -5750,7 +5750,7 @@
         <v>2011</v>
       </c>
       <c r="D327" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="328">
@@ -5764,7 +5764,7 @@
         <v>2012</v>
       </c>
       <c r="D328" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="329">
@@ -5778,7 +5778,7 @@
         <v>2013</v>
       </c>
       <c r="D329" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="330">
@@ -5792,7 +5792,7 @@
         <v>2010</v>
       </c>
       <c r="D330" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="331">
@@ -5806,7 +5806,7 @@
         <v>2011</v>
       </c>
       <c r="D331" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="332">
@@ -5820,7 +5820,7 @@
         <v>2012</v>
       </c>
       <c r="D332" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333">
@@ -5834,7 +5834,7 @@
         <v>2013</v>
       </c>
       <c r="D333" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="334">
@@ -5848,7 +5848,7 @@
         <v>2010</v>
       </c>
       <c r="D334" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335">
@@ -5862,7 +5862,7 @@
         <v>2011</v>
       </c>
       <c r="D335" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="336">
@@ -5876,7 +5876,7 @@
         <v>2012</v>
       </c>
       <c r="D336" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="337">
@@ -5890,7 +5890,7 @@
         <v>2013</v>
       </c>
       <c r="D337" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="338">
@@ -5904,7 +5904,7 @@
         <v>2010</v>
       </c>
       <c r="D338" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="339">
@@ -5918,7 +5918,7 @@
         <v>2011</v>
       </c>
       <c r="D339" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="340">
@@ -5932,7 +5932,7 @@
         <v>2012</v>
       </c>
       <c r="D340" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="341">
@@ -5946,7 +5946,7 @@
         <v>2013</v>
       </c>
       <c r="D341" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="342">
@@ -5960,7 +5960,7 @@
         <v>2010</v>
       </c>
       <c r="D342" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="343">
@@ -5974,7 +5974,7 @@
         <v>2011</v>
       </c>
       <c r="D343" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="344">
@@ -5988,7 +5988,7 @@
         <v>2012</v>
       </c>
       <c r="D344" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="345">
@@ -6002,7 +6002,7 @@
         <v>2013</v>
       </c>
       <c r="D345" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="346">
@@ -6016,7 +6016,7 @@
         <v>2010</v>
       </c>
       <c r="D346" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="347">
@@ -6030,7 +6030,7 @@
         <v>2011</v>
       </c>
       <c r="D347" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="348">
@@ -6044,7 +6044,7 @@
         <v>2012</v>
       </c>
       <c r="D348" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="349">
@@ -6058,7 +6058,7 @@
         <v>2013</v>
       </c>
       <c r="D349" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="350">
@@ -6072,7 +6072,7 @@
         <v>2010</v>
       </c>
       <c r="D350" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="351">
@@ -6086,7 +6086,7 @@
         <v>2011</v>
       </c>
       <c r="D351" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="352">
@@ -6100,7 +6100,7 @@
         <v>2012</v>
       </c>
       <c r="D352" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="353">
@@ -6114,7 +6114,7 @@
         <v>2013</v>
       </c>
       <c r="D353" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="354">
@@ -6128,7 +6128,7 @@
         <v>2010</v>
       </c>
       <c r="D354" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="355">
@@ -6142,7 +6142,7 @@
         <v>2011</v>
       </c>
       <c r="D355" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="356">
@@ -6156,7 +6156,7 @@
         <v>2012</v>
       </c>
       <c r="D356" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="357">
@@ -6170,7 +6170,7 @@
         <v>2013</v>
       </c>
       <c r="D357" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="358">
@@ -6184,7 +6184,7 @@
         <v>2010</v>
       </c>
       <c r="D358" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="359">
@@ -6198,7 +6198,7 @@
         <v>2011</v>
       </c>
       <c r="D359" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="360">
@@ -6212,7 +6212,7 @@
         <v>2012</v>
       </c>
       <c r="D360" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="361">
@@ -6226,7 +6226,7 @@
         <v>2013</v>
       </c>
       <c r="D361" t="n">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="362">
@@ -6240,7 +6240,7 @@
         <v>2010</v>
       </c>
       <c r="D362" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="363">
@@ -6254,7 +6254,7 @@
         <v>2011</v>
       </c>
       <c r="D363" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="364">
@@ -6268,7 +6268,7 @@
         <v>2012</v>
       </c>
       <c r="D364" t="n">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="365">
@@ -6282,7 +6282,7 @@
         <v>2013</v>
       </c>
       <c r="D365" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="366">
@@ -6296,7 +6296,7 @@
         <v>2010</v>
       </c>
       <c r="D366" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="367">
@@ -6310,7 +6310,7 @@
         <v>2011</v>
       </c>
       <c r="D367" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="368">
@@ -6324,7 +6324,7 @@
         <v>2012</v>
       </c>
       <c r="D368" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="369">
@@ -6338,7 +6338,7 @@
         <v>2013</v>
       </c>
       <c r="D369" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="370">
@@ -6352,7 +6352,7 @@
         <v>2010</v>
       </c>
       <c r="D370" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="371">
@@ -6366,7 +6366,7 @@
         <v>2011</v>
       </c>
       <c r="D371" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="372">
@@ -6380,7 +6380,7 @@
         <v>2012</v>
       </c>
       <c r="D372" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="373">
@@ -6394,7 +6394,7 @@
         <v>2013</v>
       </c>
       <c r="D373" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="374">
@@ -6408,7 +6408,7 @@
         <v>2010</v>
       </c>
       <c r="D374" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="375">
@@ -6422,7 +6422,7 @@
         <v>2011</v>
       </c>
       <c r="D375" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="376">
@@ -6436,7 +6436,7 @@
         <v>2012</v>
       </c>
       <c r="D376" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="377">
@@ -6450,7 +6450,7 @@
         <v>2013</v>
       </c>
       <c r="D377" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="378">
@@ -6464,7 +6464,7 @@
         <v>2010</v>
       </c>
       <c r="D378" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="379">
@@ -6478,7 +6478,7 @@
         <v>2011</v>
       </c>
       <c r="D379" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="380">
@@ -6492,7 +6492,7 @@
         <v>2012</v>
       </c>
       <c r="D380" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="381">
@@ -6506,7 +6506,7 @@
         <v>2013</v>
       </c>
       <c r="D381" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="382">
@@ -6520,7 +6520,7 @@
         <v>2010</v>
       </c>
       <c r="D382" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="383">
@@ -6534,7 +6534,7 @@
         <v>2011</v>
       </c>
       <c r="D383" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="384">
@@ -6548,7 +6548,7 @@
         <v>2012</v>
       </c>
       <c r="D384" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="385">
@@ -6562,7 +6562,7 @@
         <v>2013</v>
       </c>
       <c r="D385" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="386">
@@ -6576,7 +6576,7 @@
         <v>2010</v>
       </c>
       <c r="D386" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="387">
@@ -6590,7 +6590,7 @@
         <v>2011</v>
       </c>
       <c r="D387" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="388">
@@ -6604,7 +6604,7 @@
         <v>2012</v>
       </c>
       <c r="D388" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="389">
@@ -6618,7 +6618,7 @@
         <v>2013</v>
       </c>
       <c r="D389" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="390">
@@ -6632,7 +6632,7 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="391">
@@ -6646,7 +6646,7 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="392">
@@ -6660,7 +6660,7 @@
         <v>2012</v>
       </c>
       <c r="D392" t="n">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="393">
@@ -6674,7 +6674,7 @@
         <v>2013</v>
       </c>
       <c r="D393" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="394">
@@ -6688,7 +6688,7 @@
         <v>2010</v>
       </c>
       <c r="D394" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="395">
@@ -6702,7 +6702,7 @@
         <v>2011</v>
       </c>
       <c r="D395" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="396">
@@ -6716,7 +6716,7 @@
         <v>2012</v>
       </c>
       <c r="D396" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="397">
@@ -6730,7 +6730,7 @@
         <v>2013</v>
       </c>
       <c r="D397" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="398">
@@ -6744,7 +6744,7 @@
         <v>2010</v>
       </c>
       <c r="D398" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="399">
@@ -6758,7 +6758,7 @@
         <v>2011</v>
       </c>
       <c r="D399" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="400">
@@ -6772,7 +6772,7 @@
         <v>2012</v>
       </c>
       <c r="D400" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="401">
@@ -6786,7 +6786,7 @@
         <v>2013</v>
       </c>
       <c r="D401" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="402">
@@ -6800,7 +6800,7 @@
         <v>2010</v>
       </c>
       <c r="D402" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="403">
@@ -6814,7 +6814,7 @@
         <v>2011</v>
       </c>
       <c r="D403" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="404">
@@ -6828,7 +6828,7 @@
         <v>2012</v>
       </c>
       <c r="D404" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="405">
@@ -6842,7 +6842,7 @@
         <v>2013</v>
       </c>
       <c r="D405" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="406">
@@ -6856,7 +6856,7 @@
         <v>2010</v>
       </c>
       <c r="D406" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="407">
@@ -6870,7 +6870,7 @@
         <v>2011</v>
       </c>
       <c r="D407" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="408">
@@ -6884,7 +6884,7 @@
         <v>2012</v>
       </c>
       <c r="D408" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="409">
@@ -6898,7 +6898,7 @@
         <v>2013</v>
       </c>
       <c r="D409" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="410">
@@ -6912,7 +6912,7 @@
         <v>2010</v>
       </c>
       <c r="D410" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="411">
@@ -6926,7 +6926,7 @@
         <v>2011</v>
       </c>
       <c r="D411" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="412">
@@ -6940,7 +6940,7 @@
         <v>2012</v>
       </c>
       <c r="D412" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="413">
@@ -6954,7 +6954,7 @@
         <v>2013</v>
       </c>
       <c r="D413" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="414">
@@ -6968,7 +6968,7 @@
         <v>2010</v>
       </c>
       <c r="D414" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="415">
@@ -6982,7 +6982,7 @@
         <v>2011</v>
       </c>
       <c r="D415" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="416">
@@ -6996,7 +6996,7 @@
         <v>2012</v>
       </c>
       <c r="D416" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="417">
@@ -7010,7 +7010,7 @@
         <v>2013</v>
       </c>
       <c r="D417" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="418">
@@ -7024,7 +7024,7 @@
         <v>2010</v>
       </c>
       <c r="D418" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="419">
@@ -7038,7 +7038,7 @@
         <v>2011</v>
       </c>
       <c r="D419" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="420">
@@ -7052,7 +7052,7 @@
         <v>2012</v>
       </c>
       <c r="D420" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="421">
@@ -7066,7 +7066,7 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="422">
@@ -7080,7 +7080,7 @@
         <v>2010</v>
       </c>
       <c r="D422" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="423">
@@ -7094,7 +7094,7 @@
         <v>2011</v>
       </c>
       <c r="D423" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="424">
@@ -7108,7 +7108,7 @@
         <v>2012</v>
       </c>
       <c r="D424" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="425">
@@ -7122,7 +7122,7 @@
         <v>2013</v>
       </c>
       <c r="D425" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="426">
@@ -7136,7 +7136,7 @@
         <v>2010</v>
       </c>
       <c r="D426" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="427">
@@ -7150,7 +7150,7 @@
         <v>2011</v>
       </c>
       <c r="D427" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="428">
@@ -7164,7 +7164,7 @@
         <v>2012</v>
       </c>
       <c r="D428" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="429">
@@ -7178,7 +7178,7 @@
         <v>2013</v>
       </c>
       <c r="D429" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="430">
@@ -7192,7 +7192,7 @@
         <v>2010</v>
       </c>
       <c r="D430" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="431">
@@ -7206,7 +7206,7 @@
         <v>2011</v>
       </c>
       <c r="D431" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="432">
@@ -7220,7 +7220,7 @@
         <v>2012</v>
       </c>
       <c r="D432" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="433">
@@ -7234,7 +7234,7 @@
         <v>2013</v>
       </c>
       <c r="D433" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="434">
@@ -7248,7 +7248,7 @@
         <v>2010</v>
       </c>
       <c r="D434" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="435">
@@ -7262,7 +7262,7 @@
         <v>2011</v>
       </c>
       <c r="D435" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="436">
@@ -7276,7 +7276,7 @@
         <v>2012</v>
       </c>
       <c r="D436" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="437">
@@ -7290,7 +7290,7 @@
         <v>2013</v>
       </c>
       <c r="D437" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="438">
@@ -7304,7 +7304,7 @@
         <v>2010</v>
       </c>
       <c r="D438" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="439">
@@ -7318,7 +7318,7 @@
         <v>2011</v>
       </c>
       <c r="D439" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="440">
@@ -7332,7 +7332,7 @@
         <v>2012</v>
       </c>
       <c r="D440" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="441">
@@ -7346,7 +7346,7 @@
         <v>2013</v>
       </c>
       <c r="D441" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="442">
@@ -7360,7 +7360,7 @@
         <v>2010</v>
       </c>
       <c r="D442" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="443">
@@ -7374,7 +7374,7 @@
         <v>2011</v>
       </c>
       <c r="D443" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="444">
@@ -7388,7 +7388,7 @@
         <v>2012</v>
       </c>
       <c r="D444" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="445">
@@ -7402,7 +7402,7 @@
         <v>2013</v>
       </c>
       <c r="D445" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="446">
@@ -7416,7 +7416,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="447">
@@ -7430,7 +7430,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="448">
@@ -7444,7 +7444,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="449">
@@ -7458,7 +7458,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7480,15 +7480,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>229</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7496,441 +7499,519 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>35</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="F2" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>43</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>41</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>52</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>46</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="F6" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>50</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="F7" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>60</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="F8" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>46</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>44</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="F10" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>44</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>68</v>
+      </c>
+      <c r="F11" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>61</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="F12" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>60</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>38</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>45</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
+        <v>46</v>
+      </c>
+      <c r="D15" t="n">
         <v>47</v>
       </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F15" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>42</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="F16" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>53</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E17" t="n">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>60</v>
+      </c>
+      <c r="D18" t="n">
         <v>55</v>
       </c>
-      <c r="C18" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" t="n">
-        <v>50</v>
-      </c>
       <c r="E18" t="n">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="F18" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>60</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="F19" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>54</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="F20" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>74</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D21" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>54</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="F22" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>52</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="F23" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>50</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D24" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="F24" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>55</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>65</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E26" t="n">
-        <v>75</v>
+        <v>43</v>
+      </c>
+      <c r="F26" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>65</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D27" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
+        <v>59</v>
+      </c>
+      <c r="F27" t="n">
         <v>65</v>
       </c>
     </row>
@@ -7938,50 +8019,59 @@
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>53</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="F28" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>48</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E29" t="n">
-        <v>42</v>
+        <v>73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>60</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="n">
         <v>55</v>
       </c>
       <c r="E30" t="n">
+        <v>55</v>
+      </c>
+      <c r="F30" t="n">
         <v>55</v>
       </c>
     </row>
@@ -7989,1411 +8079,1660 @@
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>56</v>
+      </c>
+      <c r="D31" t="n">
         <v>45</v>
       </c>
-      <c r="C31" t="n">
-        <v>44</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>47</v>
       </c>
-      <c r="E31" t="n">
-        <v>48</v>
+      <c r="F31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>61</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D32" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E32" t="n">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="F32" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>72</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D33" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E33" t="n">
-        <v>75</v>
+        <v>43</v>
+      </c>
+      <c r="F33" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>58</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E34" t="n">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="F34" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>66</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D35" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E35" t="n">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="F35" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>63</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D36" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E36" t="n">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="F36" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>82</v>
+      </c>
+      <c r="D37" t="n">
         <v>72</v>
       </c>
-      <c r="C37" t="n">
-        <v>67</v>
-      </c>
-      <c r="D37" t="n">
-        <v>74</v>
-      </c>
       <c r="E37" t="n">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="F37" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>75</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D38" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E38" t="n">
-        <v>85</v>
+        <v>40</v>
+      </c>
+      <c r="F38" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>65</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D39" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" t="n">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="F39" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>40</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D40" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E40" t="n">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="F40" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>65</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E41" t="n">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="F41" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
         <v>70</v>
       </c>
-      <c r="C42" t="n">
-        <v>72</v>
-      </c>
       <c r="D42" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E42" t="n">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="F42" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>55</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E43" t="n">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="F43" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>70</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E44" t="n">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="F44" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>57</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D45" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E45" t="n">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="F45" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>74</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D46" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E46" t="n">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="F46" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>70</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D47" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E47" t="n">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="F47" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>56</v>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E48" t="n">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="F48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>66</v>
+      <c r="B49" t="s">
+        <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D49" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E49" t="n">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="F49" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>59</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
         <v>61</v>
       </c>
       <c r="D50" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" t="n">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="F50" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>91</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D51" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E51" t="n">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="F51" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>76</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D52" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E52" t="n">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="F52" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>52</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D53" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E53" t="n">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="F53" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>60</v>
+      <c r="B54" t="s">
+        <v>109</v>
       </c>
       <c r="C54" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D54" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E54" t="n">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="F54" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>70</v>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D55" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E55" t="n">
-        <v>72</v>
+        <v>48</v>
+      </c>
+      <c r="F55" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>64</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D56" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E56" t="n">
         <v>64</v>
+      </c>
+      <c r="F56" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>46</v>
+      <c r="B57" t="s">
+        <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E57" t="n">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="F57" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>60</v>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="n">
+        <v>69</v>
+      </c>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="n">
         <v>54</v>
       </c>
-      <c r="D58" t="n">
-        <v>56</v>
-      </c>
-      <c r="E58" t="n">
-        <v>57</v>
+      <c r="F58" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
         <v>69</v>
       </c>
-      <c r="C59" t="n">
-        <v>64</v>
-      </c>
       <c r="D59" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E59" t="n">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="F59" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>64</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D60" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E60" t="n">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="F60" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>56</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D61" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E61" t="n">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="F61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>69</v>
+      <c r="B62" t="s">
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D62" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E62" t="n">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="F62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>97</v>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D63" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E63" t="n">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="F63" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>56</v>
+      <c r="B64" t="s">
+        <v>129</v>
       </c>
       <c r="C64" t="n">
         <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E64" t="n">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="F64" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>66</v>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E65" t="n">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="F65" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>45</v>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D66" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E66" t="n">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="F66" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>66</v>
+      <c r="B67" t="s">
+        <v>135</v>
       </c>
       <c r="C67" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D67" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E67" t="n">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="F67" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>69</v>
+      <c r="B68" t="s">
+        <v>137</v>
       </c>
       <c r="C68" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D68" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E68" t="n">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="F68" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>74</v>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D69" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E69" t="n">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="F69" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>52</v>
+      </c>
+      <c r="D70" t="n">
+        <v>52</v>
+      </c>
+      <c r="E70" t="n">
         <v>51</v>
       </c>
-      <c r="C70" t="n">
-        <v>55</v>
-      </c>
-      <c r="D70" t="n">
-        <v>48</v>
-      </c>
-      <c r="E70" t="n">
-        <v>50</v>
+      <c r="F70" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>63</v>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D71" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E71" t="n">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="F71" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>65</v>
+      <c r="B72" t="s">
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E72" t="n">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="F72" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>78</v>
+      <c r="B73" t="s">
+        <v>147</v>
       </c>
       <c r="C73" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D73" t="n">
+        <v>58</v>
+      </c>
+      <c r="E73" t="n">
+        <v>64</v>
+      </c>
+      <c r="F73" t="n">
         <v>65</v>
-      </c>
-      <c r="E73" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>69</v>
+      <c r="B74" t="s">
+        <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D74" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E74" t="n">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="F74" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>82</v>
+      <c r="B75" t="s">
+        <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D75" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E75" t="n">
-        <v>92</v>
+        <v>43</v>
+      </c>
+      <c r="F75" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>69</v>
+      <c r="B76" t="s">
+        <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D76" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E76" t="n">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="F76" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
         <v>65</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>66</v>
       </c>
-      <c r="D77" t="n">
-        <v>67</v>
-      </c>
       <c r="E77" t="n">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="F77" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>68</v>
+      <c r="B78" t="s">
+        <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D78" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E78" t="n">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="F78" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>79</v>
+      <c r="B79" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D79" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E79" t="n">
-        <v>87</v>
+        <v>35</v>
+      </c>
+      <c r="F79" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>74</v>
+      <c r="B80" t="s">
+        <v>161</v>
       </c>
       <c r="C80" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D80" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E80" t="n">
-        <v>70</v>
+        <v>42</v>
+      </c>
+      <c r="F80" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>103</v>
+      <c r="B81" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D81" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E81" t="n">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="F81" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>69</v>
+      <c r="B82" t="s">
+        <v>165</v>
       </c>
       <c r="C82" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D82" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E82" t="n">
-        <v>63</v>
+        <v>27</v>
+      </c>
+      <c r="F82" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>76</v>
+      <c r="B83" t="s">
+        <v>167</v>
       </c>
       <c r="C83" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E83" t="n">
-        <v>76</v>
+        <v>47</v>
+      </c>
+      <c r="F83" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>71</v>
+      <c r="B84" t="s">
+        <v>169</v>
       </c>
       <c r="C84" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E84" t="n">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="F84" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>73</v>
+      <c r="B85" t="s">
+        <v>171</v>
       </c>
       <c r="C85" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D85" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E85" t="n">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="F85" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>72</v>
+      <c r="B86" t="s">
+        <v>173</v>
       </c>
       <c r="C86" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D86" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E86" t="n">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="F86" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>73</v>
+      <c r="B87" t="s">
+        <v>175</v>
       </c>
       <c r="C87" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D87" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E87" t="n">
-        <v>67</v>
+        <v>39</v>
+      </c>
+      <c r="F87" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>56</v>
+      <c r="B88" t="s">
+        <v>177</v>
       </c>
       <c r="C88" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D88" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E88" t="n">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="F88" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>40</v>
+      <c r="B89" t="s">
+        <v>179</v>
       </c>
       <c r="C89" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D89" t="n">
         <v>37</v>
       </c>
       <c r="E89" t="n">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="F89" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>57</v>
+      <c r="B90" t="s">
+        <v>181</v>
       </c>
       <c r="C90" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D90" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E90" t="n">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="F90" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>39</v>
+      <c r="B91" t="s">
+        <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D91" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E91" t="n">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="F91" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>71</v>
+      </c>
+      <c r="D92" t="n">
         <v>59</v>
       </c>
-      <c r="C92" t="n">
-        <v>58</v>
-      </c>
-      <c r="D92" t="n">
-        <v>53</v>
-      </c>
       <c r="E92" t="n">
-        <v>52</v>
+        <v>85</v>
+      </c>
+      <c r="F92" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>51</v>
+      <c r="B93" t="s">
+        <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D93" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E93" t="n">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="F93" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>64</v>
+      </c>
+      <c r="D94" t="n">
+        <v>66</v>
+      </c>
+      <c r="E94" t="n">
         <v>65</v>
       </c>
-      <c r="C94" t="n">
-        <v>61</v>
-      </c>
-      <c r="D94" t="n">
-        <v>62</v>
-      </c>
-      <c r="E94" t="n">
-        <v>60</v>
+      <c r="F94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>56</v>
+      <c r="B95" t="s">
+        <v>191</v>
       </c>
       <c r="C95" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D95" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E95" t="n">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="F95" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>54</v>
+      <c r="B96" t="s">
+        <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D96" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E96" t="n">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="F96" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>38</v>
+      <c r="B97" t="s">
+        <v>195</v>
       </c>
       <c r="C97" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D97" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E97" t="n">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="F97" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>48</v>
+      <c r="B98" t="s">
+        <v>197</v>
       </c>
       <c r="C98" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D98" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E98" t="n">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="F98" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>39</v>
+      <c r="B99" t="s">
+        <v>199</v>
       </c>
       <c r="C99" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D99" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E99" t="n">
-        <v>35</v>
+        <v>67</v>
+      </c>
+      <c r="F99" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>59</v>
+      <c r="B100" t="s">
+        <v>201</v>
       </c>
       <c r="C100" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D100" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E100" t="n">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="F100" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>51</v>
+      <c r="B101" t="s">
+        <v>203</v>
       </c>
       <c r="C101" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D101" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E101" t="n">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="F101" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>68</v>
+      <c r="B102" t="s">
+        <v>205</v>
       </c>
       <c r="C102" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D102" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E102" t="n">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="F102" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>68</v>
+      <c r="B103" t="s">
+        <v>207</v>
       </c>
       <c r="C103" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E103" t="n">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="F103" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>43</v>
+      <c r="B104" t="s">
+        <v>209</v>
       </c>
       <c r="C104" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D104" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E104" t="n">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="F104" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>51</v>
+      <c r="B105" t="s">
+        <v>211</v>
       </c>
       <c r="C105" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D105" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E105" t="n">
-        <v>53</v>
+        <v>73</v>
+      </c>
+      <c r="F105" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>52</v>
+      <c r="B106" t="s">
+        <v>213</v>
       </c>
       <c r="C106" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D106" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E106" t="n">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F106" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>46</v>
+      <c r="B107" t="s">
+        <v>215</v>
       </c>
       <c r="C107" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E107" t="n">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="F107" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>68</v>
+      <c r="B108" t="s">
+        <v>217</v>
       </c>
       <c r="C108" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D108" t="n">
         <v>64</v>
       </c>
       <c r="E108" t="n">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="F108" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>74</v>
+      <c r="B109" t="s">
+        <v>219</v>
       </c>
       <c r="C109" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D109" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E109" t="n">
-        <v>70</v>
+        <v>38</v>
+      </c>
+      <c r="F109" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>43</v>
+      <c r="B110" t="s">
+        <v>221</v>
       </c>
       <c r="C110" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D110" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E110" t="n">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="F110" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>51</v>
+      <c r="B111" t="s">
+        <v>223</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E111" t="n">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="F111" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>50</v>
+      <c r="B112" t="s">
+        <v>225</v>
       </c>
       <c r="C112" t="n">
         <v>51</v>
       </c>
       <c r="D112" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E112" t="n">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="F112" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>70</v>
+      <c r="B113" t="s">
+        <v>227</v>
       </c>
       <c r="C113" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D113" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E113" t="n">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="F113" t="n">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
+++ b/user-data/uganda-primary-stu-teach-ratio-gov/uganda-primary-stu-teach-ratio-gov.xlsx
@@ -730,7 +730,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 23</t>
+    <t xml:space="preserve">Source: 24</t>
   </si>
   <si>
     <t xml:space="preserve"/>
